--- a/maps/AR/AR20C_candidates.xlsx
+++ b/maps/AR/AR20C_candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10419"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/AR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4285A3D-7433-0D46-A099-3564FB8177B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E26658F-5906-3141-B662-AFADED50386E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="2160" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
+    <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
   <si>
     <t>#</t>
   </si>
@@ -132,33 +132,21 @@
     <t>AR20C_I097K01N04</t>
   </si>
   <si>
-    <t>0.000000</t>
-  </si>
-  <si>
     <t>AR20C_I035K01N04</t>
   </si>
   <si>
-    <t>0.041997</t>
-  </si>
-  <si>
     <t>AR20C_I064K01N04</t>
   </si>
   <si>
     <t>AR20C_I069K01N04</t>
   </si>
   <si>
-    <t>0.041611</t>
-  </si>
-  <si>
     <t>AR20C_I045K01N04</t>
   </si>
   <si>
     <t>AR20C_I017K01N04</t>
   </si>
   <si>
-    <t>0.041472</t>
-  </si>
-  <si>
     <t>AR20C_I021K01N04</t>
   </si>
   <si>
@@ -171,33 +159,21 @@
     <t>AR20C_I001K01N04</t>
   </si>
   <si>
-    <t>0.048117</t>
-  </si>
-  <si>
     <t>AR20C_I087K01N04</t>
   </si>
   <si>
     <t>AR20C_I024K01N04</t>
   </si>
   <si>
-    <t>0.047115</t>
-  </si>
-  <si>
     <t>AR20C_I004K01N04</t>
   </si>
   <si>
-    <t>0.046975</t>
-  </si>
-  <si>
     <t>AR20C_I034K01N04</t>
   </si>
   <si>
     <t>AR20C_I003K01N04</t>
   </si>
   <si>
-    <t>0.053235</t>
-  </si>
-  <si>
     <t>AR20C_I020K01N04</t>
   </si>
   <si>
@@ -225,9 +201,6 @@
     <t>AR20C_I041K01N04</t>
   </si>
   <si>
-    <t>0.052105</t>
-  </si>
-  <si>
     <t>AR20C_I077K01N04</t>
   </si>
   <si>
@@ -246,9 +219,6 @@
     <t>AR20C_I018K01N04</t>
   </si>
   <si>
-    <t>0.051948</t>
-  </si>
-  <si>
     <t>AR20C_I047K01N04</t>
   </si>
   <si>
@@ -264,9 +234,6 @@
     <t>AR20C_I000K01N04</t>
   </si>
   <si>
-    <t>0.051810</t>
-  </si>
-  <si>
     <t>AR20C_I011K01N04</t>
   </si>
   <si>
@@ -318,18 +285,12 @@
     <t>AR20C_I025K01N04</t>
   </si>
   <si>
-    <t>0.051626</t>
-  </si>
-  <si>
     <t>AR20C_I072K01N04</t>
   </si>
   <si>
     <t>AR20C_I028K01N04</t>
   </si>
   <si>
-    <t>0.051577</t>
-  </si>
-  <si>
     <t>AR20C_I032K01N04</t>
   </si>
   <si>
@@ -348,9 +309,6 @@
     <t>AR20C_I046K01N04</t>
   </si>
   <si>
-    <t>0.051521</t>
-  </si>
-  <si>
     <t>AR20C_I054K01N04</t>
   </si>
   <si>
@@ -360,15 +318,9 @@
     <t>AR20C_I094K01N04</t>
   </si>
   <si>
-    <t>0.050785</t>
-  </si>
-  <si>
     <t>AR20C_I010K01N04</t>
   </si>
   <si>
-    <t>0.539968</t>
-  </si>
-  <si>
     <t>AR20C_I012K01N04</t>
   </si>
   <si>
@@ -411,9 +363,6 @@
     <t>AR20C_I002K01N04</t>
   </si>
   <si>
-    <t>0.540133</t>
-  </si>
-  <si>
     <t>AR20C_I013K01N04</t>
   </si>
   <si>
@@ -430,9 +379,6 @@
   </si>
   <si>
     <t>AR20C_I005K01N04</t>
-  </si>
-  <si>
-    <t>0.566078</t>
   </si>
   <si>
     <t>AR20C_I008K01N04</t>
@@ -612,11 +558,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1004,7 +950,7 @@
       </c>
       <c r="F5" s="8">
         <f>MAX(DATA!I$2:I$101)</f>
-        <v>0</v>
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1027,9 +973,9 @@
         <f>AVERAGE(DATA!H$2:H$101)</f>
         <v>0.38664854000000015</v>
       </c>
-      <c r="F6" s="8" t="e">
+      <c r="F6" s="8">
         <f>AVERAGE(DATA!I$2:I$101)</f>
-        <v>#DIV/0!</v>
+        <v>0.23544396000000017</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1052,9 +998,9 @@
         <f>MEDIAN(DATA!H$2:H$101)</f>
         <v>0.17480799999999999</v>
       </c>
-      <c r="F7" s="8" t="e">
+      <c r="F7" s="8">
         <f>MEDIAN(DATA!I$2:I$101)</f>
-        <v>#NUM!</v>
+        <v>5.2104999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1077,9 +1023,9 @@
         <f>STDEV(DATA!H$2:H$101)</f>
         <v>0.28815241445570899</v>
       </c>
-      <c r="F8" s="13" t="e">
+      <c r="F8" s="13">
         <f>STDEV(DATA!I$2:I$101)</f>
-        <v>#DIV/0!</v>
+        <v>0.24400766053895787</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1136,7 +1082,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1123,7 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1206,8 +1152,8 @@
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>18</v>
+      <c r="I2" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1215,7 +1161,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1235,8 +1181,8 @@
       <c r="H3" s="9">
         <v>0.14856</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
+      <c r="I3" s="9">
+        <v>4.1997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1244,7 +1190,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1264,8 +1210,8 @@
       <c r="H4" s="9">
         <v>0.14856</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
+      <c r="I4" s="9">
+        <v>4.1997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1273,7 +1219,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1293,8 +1239,8 @@
       <c r="H5" s="9">
         <v>0.14746100000000001</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
+      <c r="I5" s="9">
+        <v>4.1611000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1302,7 +1248,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1322,8 +1268,8 @@
       <c r="H6" s="9">
         <v>0.14746100000000001</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
+      <c r="I6" s="9">
+        <v>4.1611000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1331,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1351,8 +1297,8 @@
       <c r="H7" s="9">
         <v>0.14685899999999999</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
+      <c r="I7" s="9">
+        <v>4.1472000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1360,7 +1306,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1380,8 +1326,8 @@
       <c r="H8" s="9">
         <v>0.14685899999999999</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
+      <c r="I8" s="9">
+        <v>4.1472000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1389,7 +1335,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1409,8 +1355,8 @@
       <c r="H9" s="9">
         <v>0.14685899999999999</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>26</v>
+      <c r="I9" s="9">
+        <v>4.1472000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1418,7 +1364,7 @@
         <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1438,8 +1384,8 @@
       <c r="H10" s="9">
         <v>0.14685899999999999</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>26</v>
+      <c r="I10" s="9">
+        <v>4.1472000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1447,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1467,8 +1413,8 @@
       <c r="H11" s="9">
         <v>0.16447100000000001</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>31</v>
+      <c r="I11" s="9">
+        <v>4.8117E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1476,7 +1422,7 @@
         <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1496,8 +1442,8 @@
       <c r="H12" s="9">
         <v>0.16447100000000001</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>31</v>
+      <c r="I12" s="9">
+        <v>4.8117E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1505,7 +1451,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1525,8 +1471,8 @@
       <c r="H13" s="9">
         <v>0.16184999999999999</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>34</v>
+      <c r="I13" s="9">
+        <v>4.7114999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1534,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1554,8 +1500,8 @@
       <c r="H14" s="9">
         <v>0.161247</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>36</v>
+      <c r="I14" s="9">
+        <v>4.6975000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1563,7 +1509,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1583,8 +1529,8 @@
       <c r="H15" s="9">
         <v>0.161247</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>36</v>
+      <c r="I15" s="9">
+        <v>4.6975000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1592,7 +1538,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1612,8 +1558,8 @@
       <c r="H16" s="9">
         <v>0.17766999999999999</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>39</v>
+      <c r="I16" s="9">
+        <v>5.3234999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1621,7 +1567,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1641,8 +1587,8 @@
       <c r="H17" s="9">
         <v>0.17766999999999999</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>39</v>
+      <c r="I17" s="9">
+        <v>5.3234999999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1650,7 +1596,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1670,8 +1616,8 @@
       <c r="H18" s="9">
         <v>0.17766999999999999</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>39</v>
+      <c r="I18" s="9">
+        <v>5.3234999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1679,7 +1625,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1699,8 +1645,8 @@
       <c r="H19" s="9">
         <v>0.17766999999999999</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>39</v>
+      <c r="I19" s="9">
+        <v>5.3234999999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1708,7 +1654,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1728,8 +1674,8 @@
       <c r="H20" s="9">
         <v>0.17766999999999999</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>39</v>
+      <c r="I20" s="9">
+        <v>5.3234999999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1737,7 +1683,7 @@
         <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1757,8 +1703,8 @@
       <c r="H21" s="9">
         <v>0.17766999999999999</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>39</v>
+      <c r="I21" s="9">
+        <v>5.3234999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1766,7 +1712,7 @@
         <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1786,8 +1732,8 @@
       <c r="H22" s="9">
         <v>0.17766999999999999</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>39</v>
+      <c r="I22" s="9">
+        <v>5.3234999999999998E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1795,7 +1741,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1815,8 +1761,8 @@
       <c r="H23" s="9">
         <v>0.17766999999999999</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>39</v>
+      <c r="I23" s="9">
+        <v>5.3234999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1824,7 +1770,7 @@
         <v>87</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1844,8 +1790,8 @@
       <c r="H24" s="9">
         <v>0.17766999999999999</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>39</v>
+      <c r="I24" s="9">
+        <v>5.3234999999999998E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1853,7 +1799,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1873,8 +1819,8 @@
       <c r="H25" s="9">
         <v>0.17480799999999999</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>49</v>
+      <c r="I25" s="9">
+        <v>5.2104999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1882,7 +1828,7 @@
         <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1902,8 +1848,8 @@
       <c r="H26" s="9">
         <v>0.17480799999999999</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>49</v>
+      <c r="I26" s="9">
+        <v>5.2104999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1911,7 +1857,7 @@
         <v>90</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1931,8 +1877,8 @@
       <c r="H27" s="9">
         <v>0.17480799999999999</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>49</v>
+      <c r="I27" s="9">
+        <v>5.2104999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1940,7 +1886,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1960,8 +1906,8 @@
       <c r="H28" s="9">
         <v>0.17480799999999999</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>49</v>
+      <c r="I28" s="9">
+        <v>5.2104999999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1969,7 +1915,7 @@
         <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1989,8 +1935,8 @@
       <c r="H29" s="9">
         <v>0.17480799999999999</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>49</v>
+      <c r="I29" s="9">
+        <v>5.2104999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1998,7 +1944,7 @@
         <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -2018,8 +1964,8 @@
       <c r="H30" s="9">
         <v>0.17480799999999999</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>49</v>
+      <c r="I30" s="9">
+        <v>5.2104999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2027,7 +1973,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2047,8 +1993,8 @@
       <c r="H31" s="9">
         <v>0.17438799999999999</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>56</v>
+      <c r="I31" s="9">
+        <v>5.1948000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2056,7 +2002,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -2076,8 +2022,8 @@
       <c r="H32" s="9">
         <v>0.17438799999999999</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>56</v>
+      <c r="I32" s="9">
+        <v>5.1948000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2085,7 +2031,7 @@
         <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -2105,8 +2051,8 @@
       <c r="H33" s="9">
         <v>0.17438799999999999</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>56</v>
+      <c r="I33" s="9">
+        <v>5.1948000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2114,7 +2060,7 @@
         <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -2134,8 +2080,8 @@
       <c r="H34" s="9">
         <v>0.17438799999999999</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>56</v>
+      <c r="I34" s="9">
+        <v>5.1948000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2143,7 +2089,7 @@
         <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -2163,8 +2109,8 @@
       <c r="H35" s="9">
         <v>0.17438799999999999</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>56</v>
+      <c r="I35" s="9">
+        <v>5.1948000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2172,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2192,8 +2138,8 @@
       <c r="H36" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>62</v>
+      <c r="I36" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2201,7 +2147,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -2221,8 +2167,8 @@
       <c r="H37" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>62</v>
+      <c r="I37" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2230,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2250,8 +2196,8 @@
       <c r="H38" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>62</v>
+      <c r="I38" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2259,7 +2205,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -2279,8 +2225,8 @@
       <c r="H39" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>62</v>
+      <c r="I39" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2288,7 +2234,7 @@
         <v>27</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -2308,8 +2254,8 @@
       <c r="H40" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>62</v>
+      <c r="I40" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2317,7 +2263,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -2337,8 +2283,8 @@
       <c r="H41" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>62</v>
+      <c r="I41" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -2346,7 +2292,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -2366,8 +2312,8 @@
       <c r="H42" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>62</v>
+      <c r="I42" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -2375,7 +2321,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -2395,8 +2341,8 @@
       <c r="H43" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>62</v>
+      <c r="I43" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -2404,7 +2350,7 @@
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -2424,8 +2370,8 @@
       <c r="H44" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>62</v>
+      <c r="I44" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2433,7 +2379,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -2453,8 +2399,8 @@
       <c r="H45" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>62</v>
+      <c r="I45" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,7 +2408,7 @@
         <v>61</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -2482,8 +2428,8 @@
       <c r="H46" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>62</v>
+      <c r="I46" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2491,7 +2437,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -2511,8 +2457,8 @@
       <c r="H47" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>62</v>
+      <c r="I47" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2520,7 +2466,7 @@
         <v>75</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -2540,8 +2486,8 @@
       <c r="H48" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>62</v>
+      <c r="I48" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2549,7 +2495,7 @@
         <v>81</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -2569,8 +2515,8 @@
       <c r="H49" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>62</v>
+      <c r="I49" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2578,7 +2524,7 @@
         <v>89</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -2598,8 +2544,8 @@
       <c r="H50" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>62</v>
+      <c r="I50" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2607,7 +2553,7 @@
         <v>93</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -2627,8 +2573,8 @@
       <c r="H51" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>62</v>
+      <c r="I51" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2636,7 +2582,7 @@
         <v>100</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -2656,8 +2602,8 @@
       <c r="H52" s="9">
         <v>0.174016</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>62</v>
+      <c r="I52" s="9">
+        <v>5.1810000000000002E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2665,7 +2611,7 @@
         <v>26</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -2685,8 +2631,8 @@
       <c r="H53" s="9">
         <v>0.17352100000000001</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>80</v>
+      <c r="I53" s="9">
+        <v>5.1625999999999998E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2694,7 +2640,7 @@
         <v>73</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -2714,8 +2660,8 @@
       <c r="H54" s="9">
         <v>0.17352100000000001</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>80</v>
+      <c r="I54" s="9">
+        <v>5.1625999999999998E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2723,7 +2669,7 @@
         <v>29</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -2743,8 +2689,8 @@
       <c r="H55" s="9">
         <v>0.17338700000000001</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>83</v>
+      <c r="I55" s="9">
+        <v>5.1576999999999998E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2752,7 +2698,7 @@
         <v>33</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -2772,8 +2718,8 @@
       <c r="H56" s="9">
         <v>0.17338700000000001</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>83</v>
+      <c r="I56" s="9">
+        <v>5.1576999999999998E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2781,7 +2727,7 @@
         <v>67</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -2801,8 +2747,8 @@
       <c r="H57" s="9">
         <v>0.17338700000000001</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>83</v>
+      <c r="I57" s="9">
+        <v>5.1576999999999998E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2810,7 +2756,7 @@
         <v>83</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -2830,8 +2776,8 @@
       <c r="H58" s="9">
         <v>0.17338700000000001</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>83</v>
+      <c r="I58" s="9">
+        <v>5.1576999999999998E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2839,7 +2785,7 @@
         <v>84</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -2859,8 +2805,8 @@
       <c r="H59" s="9">
         <v>0.17338700000000001</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>83</v>
+      <c r="I59" s="9">
+        <v>5.1576999999999998E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,7 +2814,7 @@
         <v>94</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -2888,8 +2834,8 @@
       <c r="H60" s="9">
         <v>0.17338700000000001</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>83</v>
+      <c r="I60" s="9">
+        <v>5.1576999999999998E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -2897,7 +2843,7 @@
         <v>47</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
@@ -2917,8 +2863,8 @@
       <c r="H61" s="9">
         <v>0.173236</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>90</v>
+      <c r="I61" s="9">
+        <v>5.1520999999999997E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2926,7 +2872,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -2946,8 +2892,8 @@
       <c r="H62" s="9">
         <v>0.173236</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>90</v>
+      <c r="I62" s="9">
+        <v>5.1520999999999997E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2955,7 +2901,7 @@
         <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -2975,8 +2921,8 @@
       <c r="H63" s="9">
         <v>0.173236</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>90</v>
+      <c r="I63" s="9">
+        <v>5.1520999999999997E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2984,7 +2930,7 @@
         <v>95</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -3004,8 +2950,8 @@
       <c r="H64" s="9">
         <v>0.17124300000000001</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>94</v>
+      <c r="I64" s="9">
+        <v>5.0784999999999997E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3013,7 +2959,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -3033,8 +2979,8 @@
       <c r="H65" s="9">
         <v>0.74938400000000005</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>96</v>
+      <c r="I65" s="9">
+        <v>0.539968</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3042,7 +2988,7 @@
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
@@ -3062,8 +3008,8 @@
       <c r="H66" s="9">
         <v>0.74938400000000005</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>96</v>
+      <c r="I66" s="9">
+        <v>0.539968</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -3071,7 +3017,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -3091,8 +3037,8 @@
       <c r="H67" s="9">
         <v>0.74938400000000005</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>96</v>
+      <c r="I67" s="9">
+        <v>0.539968</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3100,7 +3046,7 @@
         <v>37</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -3120,8 +3066,8 @@
       <c r="H68" s="9">
         <v>0.74938400000000005</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>96</v>
+      <c r="I68" s="9">
+        <v>0.539968</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -3129,7 +3075,7 @@
         <v>41</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
@@ -3149,8 +3095,8 @@
       <c r="H69" s="9">
         <v>0.74938400000000005</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>96</v>
+      <c r="I69" s="9">
+        <v>0.539968</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -3158,7 +3104,7 @@
         <v>43</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -3178,8 +3124,8 @@
       <c r="H70" s="9">
         <v>0.74938400000000005</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>96</v>
+      <c r="I70" s="9">
+        <v>0.539968</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -3187,7 +3133,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -3207,8 +3153,8 @@
       <c r="H71" s="9">
         <v>0.74938400000000005</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>96</v>
+      <c r="I71" s="9">
+        <v>0.539968</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -3216,7 +3162,7 @@
         <v>60</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -3236,8 +3182,8 @@
       <c r="H72" s="9">
         <v>0.74938400000000005</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>96</v>
+      <c r="I72" s="9">
+        <v>0.539968</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -3245,7 +3191,7 @@
         <v>96</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -3265,8 +3211,8 @@
       <c r="H73" s="9">
         <v>0.74938400000000005</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>96</v>
+      <c r="I73" s="9">
+        <v>0.539968</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -3274,7 +3220,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
@@ -3294,8 +3240,8 @@
       <c r="H74" s="9">
         <v>0.74938400000000005</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>96</v>
+      <c r="I74" s="9">
+        <v>0.539968</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -3303,7 +3249,7 @@
         <v>38</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
@@ -3323,8 +3269,8 @@
       <c r="H75" s="9">
         <v>0.74938400000000005</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>96</v>
+      <c r="I75" s="9">
+        <v>0.539968</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -3332,7 +3278,7 @@
         <v>40</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
@@ -3352,8 +3298,8 @@
       <c r="H76" s="9">
         <v>0.74938400000000005</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>96</v>
+      <c r="I76" s="9">
+        <v>0.539968</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -3361,7 +3307,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
@@ -3381,8 +3327,8 @@
       <c r="H77" s="9">
         <v>0.74938400000000005</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>96</v>
+      <c r="I77" s="9">
+        <v>0.539968</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -3390,7 +3336,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
@@ -3410,8 +3356,8 @@
       <c r="H78" s="9">
         <v>0.74938400000000005</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>96</v>
+      <c r="I78" s="9">
+        <v>0.539968</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3419,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
@@ -3439,8 +3385,8 @@
       <c r="H79" s="9">
         <v>0.74946500000000005</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>111</v>
+      <c r="I79" s="9">
+        <v>0.54013299999999997</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3448,7 +3394,7 @@
         <v>14</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
@@ -3468,8 +3414,8 @@
       <c r="H80" s="9">
         <v>0.74946500000000005</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>111</v>
+      <c r="I80" s="9">
+        <v>0.54013299999999997</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3477,7 +3423,7 @@
         <v>17</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
@@ -3497,8 +3443,8 @@
       <c r="H81" s="9">
         <v>0.74946500000000005</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>111</v>
+      <c r="I81" s="9">
+        <v>0.54013299999999997</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -3506,7 +3452,7 @@
         <v>85</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -3526,8 +3472,8 @@
       <c r="H82" s="9">
         <v>0.74946500000000005</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>111</v>
+      <c r="I82" s="9">
+        <v>0.54013299999999997</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -3535,7 +3481,7 @@
         <v>92</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -3555,8 +3501,8 @@
       <c r="H83" s="9">
         <v>0.74946500000000005</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>111</v>
+      <c r="I83" s="9">
+        <v>0.54013299999999997</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -3564,7 +3510,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
@@ -3584,8 +3530,8 @@
       <c r="H84" s="9">
         <v>0.74946500000000005</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>111</v>
+      <c r="I84" s="9">
+        <v>0.54013299999999997</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -3593,7 +3539,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -3613,8 +3559,8 @@
       <c r="H85" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>118</v>
+      <c r="I85" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -3622,7 +3568,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
@@ -3642,8 +3588,8 @@
       <c r="H86" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>118</v>
+      <c r="I86" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -3651,7 +3597,7 @@
         <v>10</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
@@ -3671,8 +3617,8 @@
       <c r="H87" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>118</v>
+      <c r="I87" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -3680,7 +3626,7 @@
         <v>20</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
@@ -3700,8 +3646,8 @@
       <c r="H88" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>118</v>
+      <c r="I88" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -3709,7 +3655,7 @@
         <v>24</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
@@ -3729,8 +3675,8 @@
       <c r="H89" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>118</v>
+      <c r="I89" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -3738,7 +3684,7 @@
         <v>39</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
@@ -3758,8 +3704,8 @@
       <c r="H90" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>118</v>
+      <c r="I90" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -3767,7 +3713,7 @@
         <v>50</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -3787,8 +3733,8 @@
       <c r="H91" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>118</v>
+      <c r="I91" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -3796,7 +3742,7 @@
         <v>54</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -3816,8 +3762,8 @@
       <c r="H92" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>118</v>
+      <c r="I92" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -3825,7 +3771,7 @@
         <v>56</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
@@ -3845,8 +3791,8 @@
       <c r="H93" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>118</v>
+      <c r="I93" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -3854,7 +3800,7 @@
         <v>57</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -3874,8 +3820,8 @@
       <c r="H94" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>118</v>
+      <c r="I94" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -3883,7 +3829,7 @@
         <v>59</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -3903,8 +3849,8 @@
       <c r="H95" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>118</v>
+      <c r="I95" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -3912,7 +3858,7 @@
         <v>62</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
@@ -3932,8 +3878,8 @@
       <c r="H96" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>118</v>
+      <c r="I96" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -3941,7 +3887,7 @@
         <v>64</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -3961,8 +3907,8 @@
       <c r="H97" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>118</v>
+      <c r="I97" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -3970,7 +3916,7 @@
         <v>77</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -3990,8 +3936,8 @@
       <c r="H98" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>118</v>
+      <c r="I98" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -3999,7 +3945,7 @@
         <v>82</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -4019,8 +3965,8 @@
       <c r="H99" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>118</v>
+      <c r="I99" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4028,7 +3974,7 @@
         <v>86</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -4048,8 +3994,8 @@
       <c r="H100" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>118</v>
+      <c r="I100" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4057,7 +4003,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -4077,8 +4023,8 @@
       <c r="H101" s="9">
         <v>0.77220699999999998</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>118</v>
+      <c r="I101" s="9">
+        <v>0.56607799999999997</v>
       </c>
     </row>
   </sheetData>

--- a/maps/AR/AR20C_candidates.xlsx
+++ b/maps/AR/AR20C_candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/AR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E26658F-5906-3141-B662-AFADED50386E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CC2E43-7A01-054A-B98C-4301A4EF80CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
+    <workbookView xWindow="4560" yWindow="1360" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -558,11 +558,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,7 +1082,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/maps/AR/AR20C_candidates.xlsx
+++ b/maps/AR/AR20C_candidates.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/AR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CC2E43-7A01-054A-B98C-4301A4EF80CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B806D4A-8E5A-7641-BA68-CBC48D50C382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="1360" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
+    <sheet name="ENERGIES" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="AR20C_energies" localSheetId="2">ENERGIES!$A$1:$B$101</definedName>
     <definedName name="NC20C_candidates" localSheetId="1">DATA!$A$1:$I$101</definedName>
     <definedName name="WA20C_energies" localSheetId="1">DATA!$A$1:$I$101</definedName>
   </definedNames>
@@ -42,7 +44,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{0A068D4B-DECE-2C47-9741-13AD2A4BEF96}" name="NC20C_candidates1" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{A4CC9A57-8207-5448-84CE-26FC5CED1DA9}" name="AR20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/AR/AR20C_energies.csv" comma="1">
+      <textFields count="2">
+        <textField type="text"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{0A068D4B-DECE-2C47-9741-13AD2A4BEF96}" name="NC20C_candidates1" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/NC/NC20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
@@ -57,7 +67,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{2A8C1F5B-279D-584B-8B5C-4F3DB75AD51E}" name="WA20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="3" xr16:uid="{2A8C1F5B-279D-584B-8B5C-4F3DB75AD51E}" name="WA20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/AR/AR20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
@@ -76,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="120">
   <si>
     <t>#</t>
   </si>
@@ -427,6 +437,15 @@
   </si>
   <si>
     <t>AR20C_I098K01N04</t>
+  </si>
+  <si>
+    <t>MAP'</t>
+  </si>
+  <si>
+    <t>ENERGY'</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -438,7 +457,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,8 +480,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +506,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -539,6 +579,17 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,11 +609,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="3" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="2" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="AR20C_energies" connectionId="1" xr16:uid="{17F8CC7F-7641-D64F-BA60-E11364DFE53B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -959,23 +1014,23 @@
       </c>
       <c r="B6" s="22">
         <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>6.7869000000000011E-3</v>
+        <v>6.786900000000002E-3</v>
       </c>
       <c r="C6" s="8">
         <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>2.1045400000000009E-2</v>
+        <v>2.1045399999999992E-2</v>
       </c>
       <c r="D6" s="8">
         <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>0.90823628999999884</v>
+        <v>0.90823628999999995</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>0.38664854000000015</v>
+        <v>0.38664854000000021</v>
       </c>
       <c r="F6" s="8">
         <f>AVERAGE(DATA!I$2:I$101)</f>
-        <v>0.23544396000000017</v>
+        <v>0.2354439600000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1009,15 +1064,15 @@
       </c>
       <c r="B8" s="27">
         <f>STDEV(DATA!E$2:E$101)</f>
-        <v>1.6182361609874093E-3</v>
+        <v>1.6182361609874112E-3</v>
       </c>
       <c r="C8" s="13">
         <f>STDEV(DATA!F$2:F$101)</f>
-        <v>2.2136625743620714E-2</v>
+        <v>2.2136625743620728E-2</v>
       </c>
       <c r="D8" s="13">
         <f>STDEV(DATA!G$2:G$101)</f>
-        <v>8.874936686145421E-2</v>
+        <v>8.8749366861454279E-2</v>
       </c>
       <c r="E8" s="13">
         <f>STDEV(DATA!H$2:H$101)</f>
@@ -1025,7 +1080,7 @@
       </c>
       <c r="F8" s="13">
         <f>STDEV(DATA!I$2:I$101)</f>
-        <v>0.24400766053895787</v>
+        <v>0.24400766053895792</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1076,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E879E283-F11F-BE4E-82D7-D1F9AF3BA95A}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1096,9 +1151,12 @@
     <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1126,448 +1184,548 @@
       <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>98</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25">
-        <v>1847883.093562</v>
-      </c>
-      <c r="E2" s="21">
-        <v>6.8599999999999998E-3</v>
-      </c>
-      <c r="F2" s="21">
-        <v>0</v>
-      </c>
-      <c r="G2" s="21">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="33">
+        <v>16</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1856774.15576</v>
+      </c>
+      <c r="E2" s="36">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="F2" s="36">
+        <v>4.8110000000000002E-3</v>
+      </c>
+      <c r="G2" s="36">
+        <v>0.97475400000000001</v>
+      </c>
+      <c r="H2" s="37">
+        <v>0.174016</v>
+      </c>
+      <c r="I2" s="37">
+        <v>5.1810000000000002E-2</v>
+      </c>
+      <c r="J2" s="33"/>
+      <c r="K2" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="39">
+        <v>1616149.669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="23">
-        <v>1850718.447774</v>
+        <v>1856829.0144189999</v>
       </c>
       <c r="E3" s="22">
-        <v>5.9100000000000003E-3</v>
+        <v>8.6499999999999997E-3</v>
       </c>
       <c r="F3" s="22">
-        <v>1.534E-3</v>
+        <v>4.8409999999999998E-3</v>
       </c>
       <c r="G3" s="22">
-        <v>0.97944100000000001</v>
+        <v>0.97486600000000001</v>
       </c>
       <c r="H3" s="9">
-        <v>0.14856</v>
+        <v>0.17338700000000001</v>
       </c>
       <c r="I3" s="9">
-        <v>4.1997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1576999999999998E-2</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="30">
+        <v>1620187.534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="23">
-        <v>1850718.447774</v>
+        <v>1937032.677049</v>
       </c>
       <c r="E4" s="22">
-        <v>5.9100000000000003E-3</v>
+        <v>4.3400000000000001E-3</v>
       </c>
       <c r="F4" s="22">
-        <v>1.534E-3</v>
+        <v>4.8244000000000002E-2</v>
       </c>
       <c r="G4" s="22">
-        <v>0.97944100000000001</v>
+        <v>0.79687200000000002</v>
       </c>
       <c r="H4" s="9">
-        <v>0.14856</v>
+        <v>0.74938400000000005</v>
       </c>
       <c r="I4" s="9">
-        <v>4.1997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.539968</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="30">
+        <v>1620187.534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="23">
-        <v>1850897.4972339999</v>
+        <v>1943003.870782</v>
       </c>
       <c r="E5" s="22">
-        <v>5.6800000000000002E-3</v>
+        <v>6.4799999999999996E-3</v>
       </c>
       <c r="F5" s="22">
-        <v>1.6310000000000001E-3</v>
+        <v>5.1476000000000001E-2</v>
       </c>
       <c r="G5" s="22">
-        <v>0.979626</v>
+        <v>0.78870899999999999</v>
       </c>
       <c r="H5" s="9">
-        <v>0.14746100000000001</v>
+        <v>0.77220699999999998</v>
       </c>
       <c r="I5" s="9">
-        <v>4.1611000000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="30">
+        <v>1620187.534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="23">
-        <v>1850897.4972339999</v>
+        <v>1943003.870782</v>
       </c>
       <c r="E6" s="22">
-        <v>5.6800000000000002E-3</v>
+        <v>6.4799999999999996E-3</v>
       </c>
       <c r="F6" s="22">
-        <v>1.6310000000000001E-3</v>
+        <v>5.1476000000000001E-2</v>
       </c>
       <c r="G6" s="22">
-        <v>0.979626</v>
+        <v>0.78870899999999999</v>
       </c>
       <c r="H6" s="9">
-        <v>0.14746100000000001</v>
+        <v>0.77220699999999998</v>
       </c>
       <c r="I6" s="9">
-        <v>4.1611000000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" s="30">
+        <v>1620187.534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="23">
-        <v>1850943.789959</v>
+        <v>1856749.507032</v>
       </c>
       <c r="E7" s="22">
-        <v>5.6800000000000002E-3</v>
+        <v>7.9799999999999992E-3</v>
       </c>
       <c r="F7" s="22">
-        <v>1.6559999999999999E-3</v>
+        <v>4.7980000000000002E-3</v>
       </c>
       <c r="G7" s="22">
-        <v>0.97969200000000001</v>
+        <v>0.974688</v>
       </c>
       <c r="H7" s="9">
-        <v>0.14685899999999999</v>
+        <v>0.17438799999999999</v>
       </c>
       <c r="I7" s="9">
-        <v>4.1472000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1948000000000001E-2</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="30">
+        <v>1620187.534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1856774.15576</v>
+      </c>
+      <c r="E8" s="22">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="F8" s="22">
+        <v>4.8110000000000002E-3</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.97475400000000001</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.174016</v>
+      </c>
+      <c r="I8" s="9">
+        <v>5.1810000000000002E-2</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="30">
+        <v>1620187.534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1856735.2473510001</v>
+      </c>
+      <c r="E9" s="22">
+        <v>7.9799999999999992E-3</v>
+      </c>
+      <c r="F9" s="22">
+        <v>4.79E-3</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.97461299999999995</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.17480799999999999</v>
+      </c>
+      <c r="I9" s="9">
+        <v>5.2104999999999999E-2</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="30">
+        <v>1620187.534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>85</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1937067.900046</v>
+      </c>
+      <c r="E10" s="22">
+        <v>4.79E-3</v>
+      </c>
+      <c r="F10" s="22">
+        <v>4.8263E-2</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.79681599999999997</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.74946500000000005</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.54013299999999997</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="30">
+        <v>1620187.534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1856774.15576</v>
+      </c>
+      <c r="E11" s="22">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="F11" s="22">
+        <v>4.8110000000000002E-3</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.97475400000000001</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.174016</v>
+      </c>
+      <c r="I11" s="9">
+        <v>5.1810000000000002E-2</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="30">
+        <v>1620187.534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1856817.48282</v>
+      </c>
+      <c r="E12" s="22">
+        <v>8.5500000000000003E-3</v>
+      </c>
+      <c r="F12" s="22">
+        <v>4.8349999999999999E-3</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.97484199999999999</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.17352100000000001</v>
+      </c>
+      <c r="I12" s="9">
+        <v>5.1625999999999998E-2</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="30">
+        <v>1620196.1839999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1937032.677049</v>
+      </c>
+      <c r="E13" s="22">
+        <v>4.3400000000000001E-3</v>
+      </c>
+      <c r="F13" s="22">
+        <v>4.8244000000000002E-2</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0.79687200000000002</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.74938400000000005</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.539968</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="30">
+        <v>1620869.236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1856749.507032</v>
+      </c>
+      <c r="E14" s="22">
+        <v>7.9799999999999992E-3</v>
+      </c>
+      <c r="F14" s="22">
+        <v>4.7980000000000002E-3</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.974688</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.17438799999999999</v>
+      </c>
+      <c r="I14" s="9">
+        <v>5.1948000000000001E-2</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="30">
+        <v>1620869.236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>97</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1937067.900046</v>
+      </c>
+      <c r="E15" s="22">
+        <v>4.79E-3</v>
+      </c>
+      <c r="F15" s="22">
+        <v>4.8263E-2</v>
+      </c>
+      <c r="G15" s="22">
+        <v>0.79681599999999997</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.74946500000000005</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.54013299999999997</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="30">
+        <v>1620869.236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>99</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1943003.870782</v>
+      </c>
+      <c r="E16" s="22">
+        <v>6.4799999999999996E-3</v>
+      </c>
+      <c r="F16" s="22">
+        <v>5.1476000000000001E-2</v>
+      </c>
+      <c r="G16" s="22">
+        <v>0.78870899999999999</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.77220699999999998</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="30">
+        <v>1620869.236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>23</v>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23">
-        <v>1850943.789959</v>
-      </c>
-      <c r="E8" s="22">
-        <v>5.6800000000000002E-3</v>
-      </c>
-      <c r="F8" s="22">
-        <v>1.6559999999999999E-3</v>
-      </c>
-      <c r="G8" s="22">
-        <v>0.97969200000000001</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0.14685899999999999</v>
-      </c>
-      <c r="I8" s="9">
-        <v>4.1472000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="23">
-        <v>1850943.789959</v>
-      </c>
-      <c r="E9" s="22">
-        <v>5.6800000000000002E-3</v>
-      </c>
-      <c r="F9" s="22">
-        <v>1.6559999999999999E-3</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0.97969200000000001</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.14685899999999999</v>
-      </c>
-      <c r="I9" s="9">
-        <v>4.1472000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>91</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23">
-        <v>1850943.789959</v>
-      </c>
-      <c r="E10" s="22">
-        <v>5.6800000000000002E-3</v>
-      </c>
-      <c r="F10" s="22">
-        <v>1.6559999999999999E-3</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0.97969200000000001</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.14685899999999999</v>
-      </c>
-      <c r="I10" s="9">
-        <v>4.1472000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23">
-        <v>1854911.9650359999</v>
-      </c>
-      <c r="E11" s="22">
-        <v>7.6299999999999996E-3</v>
-      </c>
-      <c r="F11" s="22">
-        <v>3.8040000000000001E-3</v>
-      </c>
-      <c r="G11" s="22">
-        <v>0.97651600000000005</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0.16447100000000001</v>
-      </c>
-      <c r="I11" s="9">
-        <v>4.8117E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>88</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="23">
-        <v>1854911.9650359999</v>
-      </c>
-      <c r="E12" s="22">
-        <v>7.6299999999999996E-3</v>
-      </c>
-      <c r="F12" s="22">
-        <v>3.8040000000000001E-3</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0.97651600000000005</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0.16447100000000001</v>
-      </c>
-      <c r="I12" s="9">
-        <v>4.8117E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="23">
-        <v>1855232.253023</v>
-      </c>
-      <c r="E13" s="22">
-        <v>9.5499999999999995E-3</v>
-      </c>
-      <c r="F13" s="22">
-        <v>3.9769999999999996E-3</v>
-      </c>
-      <c r="G13" s="22">
-        <v>0.97699499999999995</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.16184999999999999</v>
-      </c>
-      <c r="I13" s="9">
-        <v>4.7114999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="23">
-        <v>1855276.704683</v>
-      </c>
-      <c r="E14" s="22">
-        <v>9.8099999999999993E-3</v>
-      </c>
-      <c r="F14" s="22">
-        <v>4.0010000000000002E-3</v>
-      </c>
-      <c r="G14" s="22">
-        <v>0.97706099999999996</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.161247</v>
-      </c>
-      <c r="I14" s="9">
-        <v>4.6975000000000003E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="23">
-        <v>1855276.704683</v>
-      </c>
-      <c r="E15" s="22">
-        <v>9.8099999999999993E-3</v>
-      </c>
-      <c r="F15" s="22">
-        <v>4.0010000000000002E-3</v>
-      </c>
-      <c r="G15" s="22">
-        <v>0.97706099999999996</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0.161247</v>
-      </c>
-      <c r="I15" s="9">
-        <v>4.6975000000000003E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="23">
-        <v>1855936.9607249999</v>
-      </c>
-      <c r="E16" s="22">
-        <v>5.4900000000000001E-3</v>
-      </c>
-      <c r="F16" s="22">
-        <v>4.3579999999999999E-3</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0.97407600000000005</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0.17766999999999999</v>
-      </c>
-      <c r="I16" s="9">
-        <v>5.3234999999999998E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>21</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1590,71 +1748,89 @@
       <c r="I17" s="9">
         <v>5.3234999999999998E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="30">
+        <v>1621262.9169999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="23">
-        <v>1855936.9607249999</v>
+        <v>1943003.870782</v>
       </c>
       <c r="E18" s="22">
-        <v>5.4900000000000001E-3</v>
+        <v>6.4799999999999996E-3</v>
       </c>
       <c r="F18" s="22">
-        <v>4.3579999999999999E-3</v>
+        <v>5.1476000000000001E-2</v>
       </c>
       <c r="G18" s="22">
-        <v>0.97407600000000005</v>
+        <v>0.78870899999999999</v>
       </c>
       <c r="H18" s="9">
-        <v>0.17766999999999999</v>
+        <v>0.77220699999999998</v>
       </c>
       <c r="I18" s="9">
-        <v>5.3234999999999998E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="30">
+        <v>1621891.875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="23">
-        <v>1855936.9607249999</v>
+        <v>1937067.900046</v>
       </c>
       <c r="E19" s="22">
-        <v>5.4900000000000001E-3</v>
+        <v>4.79E-3</v>
       </c>
       <c r="F19" s="22">
-        <v>4.3579999999999999E-3</v>
+        <v>4.8263E-2</v>
       </c>
       <c r="G19" s="22">
-        <v>0.97407600000000005</v>
+        <v>0.79681599999999997</v>
       </c>
       <c r="H19" s="9">
-        <v>0.17766999999999999</v>
+        <v>0.74946500000000005</v>
       </c>
       <c r="I19" s="9">
-        <v>5.3234999999999998E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.54013299999999997</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="30">
+        <v>1622213.192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1677,129 +1853,159 @@
       <c r="I20" s="9">
         <v>5.3234999999999998E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="30">
+        <v>1622213.192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="23">
-        <v>1855936.9607249999</v>
+        <v>1856774.15576</v>
       </c>
       <c r="E21" s="22">
-        <v>5.4900000000000001E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="F21" s="22">
-        <v>4.3579999999999999E-3</v>
+        <v>4.8110000000000002E-3</v>
       </c>
       <c r="G21" s="22">
-        <v>0.97407600000000005</v>
+        <v>0.97475400000000001</v>
       </c>
       <c r="H21" s="9">
-        <v>0.17766999999999999</v>
+        <v>0.174016</v>
       </c>
       <c r="I21" s="9">
-        <v>5.3234999999999998E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1810000000000002E-2</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="30">
+        <v>1622213.192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="23">
-        <v>1855936.9607249999</v>
+        <v>1937032.677049</v>
       </c>
       <c r="E22" s="22">
-        <v>5.4900000000000001E-3</v>
+        <v>4.3400000000000001E-3</v>
       </c>
       <c r="F22" s="22">
-        <v>4.3579999999999999E-3</v>
+        <v>4.8244000000000002E-2</v>
       </c>
       <c r="G22" s="22">
-        <v>0.97407600000000005</v>
+        <v>0.79687200000000002</v>
       </c>
       <c r="H22" s="9">
-        <v>0.17766999999999999</v>
+        <v>0.74938400000000005</v>
       </c>
       <c r="I22" s="9">
-        <v>5.3234999999999998E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.539968</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="30">
+        <v>1623149.5830000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="23">
-        <v>1855936.9607249999</v>
+        <v>1855232.253023</v>
       </c>
       <c r="E23" s="22">
-        <v>5.4900000000000001E-3</v>
+        <v>9.5499999999999995E-3</v>
       </c>
       <c r="F23" s="22">
-        <v>4.3579999999999999E-3</v>
+        <v>3.9769999999999996E-3</v>
       </c>
       <c r="G23" s="22">
-        <v>0.97407600000000005</v>
+        <v>0.97699499999999995</v>
       </c>
       <c r="H23" s="9">
-        <v>0.17766999999999999</v>
+        <v>0.16184999999999999</v>
       </c>
       <c r="I23" s="9">
-        <v>5.3234999999999998E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.7114999999999997E-2</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="30">
+        <v>1623311.679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="23">
-        <v>1855936.9607249999</v>
+        <v>1937032.677049</v>
       </c>
       <c r="E24" s="22">
-        <v>5.4900000000000001E-3</v>
+        <v>4.3400000000000001E-3</v>
       </c>
       <c r="F24" s="22">
-        <v>4.3579999999999999E-3</v>
+        <v>4.8244000000000002E-2</v>
       </c>
       <c r="G24" s="22">
-        <v>0.97407600000000005</v>
+        <v>0.79687200000000002</v>
       </c>
       <c r="H24" s="9">
-        <v>0.17766999999999999</v>
+        <v>0.74938400000000005</v>
       </c>
       <c r="I24" s="9">
-        <v>5.3234999999999998E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.539968</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1822,361 +2028,439 @@
       <c r="I25" s="9">
         <v>5.2104999999999999E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K25" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="23">
-        <v>1856735.2473510001</v>
+        <v>1943003.870782</v>
       </c>
       <c r="E26" s="22">
-        <v>7.9799999999999992E-3</v>
+        <v>6.4799999999999996E-3</v>
       </c>
       <c r="F26" s="22">
-        <v>4.79E-3</v>
+        <v>5.1476000000000001E-2</v>
       </c>
       <c r="G26" s="22">
-        <v>0.97461299999999995</v>
+        <v>0.78870899999999999</v>
       </c>
       <c r="H26" s="9">
-        <v>0.17480799999999999</v>
+        <v>0.77220699999999998</v>
       </c>
       <c r="I26" s="9">
-        <v>5.2104999999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="23">
-        <v>1856735.2473510001</v>
+        <v>1943003.870782</v>
       </c>
       <c r="E27" s="22">
-        <v>7.9799999999999992E-3</v>
+        <v>6.4799999999999996E-3</v>
       </c>
       <c r="F27" s="22">
-        <v>4.79E-3</v>
+        <v>5.1476000000000001E-2</v>
       </c>
       <c r="G27" s="22">
-        <v>0.97461299999999995</v>
+        <v>0.78870899999999999</v>
       </c>
       <c r="H27" s="9">
-        <v>0.17480799999999999</v>
+        <v>0.77220699999999998</v>
       </c>
       <c r="I27" s="9">
-        <v>5.2104999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="L27" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="23">
-        <v>1856735.2473510001</v>
+        <v>1937032.677049</v>
       </c>
       <c r="E28" s="22">
-        <v>7.9799999999999992E-3</v>
+        <v>4.3400000000000001E-3</v>
       </c>
       <c r="F28" s="22">
-        <v>4.79E-3</v>
+        <v>4.8244000000000002E-2</v>
       </c>
       <c r="G28" s="22">
-        <v>0.97461299999999995</v>
+        <v>0.79687200000000002</v>
       </c>
       <c r="H28" s="9">
-        <v>0.17480799999999999</v>
+        <v>0.74938400000000005</v>
       </c>
       <c r="I28" s="9">
-        <v>5.2104999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.539968</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="23">
-        <v>1856735.2473510001</v>
+        <v>1850943.789959</v>
       </c>
       <c r="E29" s="22">
-        <v>7.9799999999999992E-3</v>
+        <v>5.6800000000000002E-3</v>
       </c>
       <c r="F29" s="22">
-        <v>4.79E-3</v>
+        <v>1.6559999999999999E-3</v>
       </c>
       <c r="G29" s="22">
-        <v>0.97461299999999995</v>
+        <v>0.97969200000000001</v>
       </c>
       <c r="H29" s="9">
-        <v>0.17480799999999999</v>
+        <v>0.14685899999999999</v>
       </c>
       <c r="I29" s="9">
-        <v>5.2104999999999999E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.1472000000000002E-2</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="23">
-        <v>1856735.2473510001</v>
+        <v>1856749.507032</v>
       </c>
       <c r="E30" s="22">
         <v>7.9799999999999992E-3</v>
       </c>
       <c r="F30" s="22">
-        <v>4.79E-3</v>
+        <v>4.7980000000000002E-3</v>
       </c>
       <c r="G30" s="22">
-        <v>0.97461299999999995</v>
+        <v>0.974688</v>
       </c>
       <c r="H30" s="9">
-        <v>0.17480799999999999</v>
+        <v>0.17438799999999999</v>
       </c>
       <c r="I30" s="9">
-        <v>5.2104999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1948000000000001E-2</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="23">
-        <v>1856749.507032</v>
+        <v>1850943.789959</v>
       </c>
       <c r="E31" s="22">
-        <v>7.9799999999999992E-3</v>
+        <v>5.6800000000000002E-3</v>
       </c>
       <c r="F31" s="22">
-        <v>4.7980000000000002E-3</v>
+        <v>1.6559999999999999E-3</v>
       </c>
       <c r="G31" s="22">
-        <v>0.974688</v>
+        <v>0.97969200000000001</v>
       </c>
       <c r="H31" s="9">
-        <v>0.17438799999999999</v>
+        <v>0.14685899999999999</v>
       </c>
       <c r="I31" s="9">
-        <v>5.1948000000000001E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.1472000000000002E-2</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="23">
-        <v>1856749.507032</v>
+        <v>1943003.870782</v>
       </c>
       <c r="E32" s="22">
-        <v>7.9799999999999992E-3</v>
+        <v>6.4799999999999996E-3</v>
       </c>
       <c r="F32" s="22">
-        <v>4.7980000000000002E-3</v>
+        <v>5.1476000000000001E-2</v>
       </c>
       <c r="G32" s="22">
-        <v>0.974688</v>
+        <v>0.78870899999999999</v>
       </c>
       <c r="H32" s="9">
-        <v>0.17438799999999999</v>
+        <v>0.77220699999999998</v>
       </c>
       <c r="I32" s="9">
-        <v>5.1948000000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="L32" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="23">
-        <v>1856749.507032</v>
+        <v>1856774.15576</v>
       </c>
       <c r="E33" s="22">
-        <v>7.9799999999999992E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="F33" s="22">
-        <v>4.7980000000000002E-3</v>
+        <v>4.8110000000000002E-3</v>
       </c>
       <c r="G33" s="22">
-        <v>0.974688</v>
+        <v>0.97475400000000001</v>
       </c>
       <c r="H33" s="9">
-        <v>0.17438799999999999</v>
+        <v>0.174016</v>
       </c>
       <c r="I33" s="9">
-        <v>5.1948000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1810000000000002E-2</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="23">
-        <v>1856749.507032</v>
+        <v>1856774.15576</v>
       </c>
       <c r="E34" s="22">
-        <v>7.9799999999999992E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="F34" s="22">
-        <v>4.7980000000000002E-3</v>
+        <v>4.8110000000000002E-3</v>
       </c>
       <c r="G34" s="22">
-        <v>0.974688</v>
+        <v>0.97475400000000001</v>
       </c>
       <c r="H34" s="9">
-        <v>0.17438799999999999</v>
+        <v>0.174016</v>
       </c>
       <c r="I34" s="9">
-        <v>5.1948000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1810000000000002E-2</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="23">
-        <v>1856749.507032</v>
+        <v>1856735.2473510001</v>
       </c>
       <c r="E35" s="22">
         <v>7.9799999999999992E-3</v>
       </c>
       <c r="F35" s="22">
-        <v>4.7980000000000002E-3</v>
+        <v>4.79E-3</v>
       </c>
       <c r="G35" s="22">
-        <v>0.974688</v>
+        <v>0.97461299999999995</v>
       </c>
       <c r="H35" s="9">
-        <v>0.17438799999999999</v>
+        <v>0.17480799999999999</v>
       </c>
       <c r="I35" s="9">
-        <v>5.1948000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.2104999999999999E-2</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="23">
-        <v>1856774.15576</v>
+        <v>1937032.677049</v>
       </c>
       <c r="E36" s="22">
-        <v>8.2000000000000007E-3</v>
+        <v>4.3400000000000001E-3</v>
       </c>
       <c r="F36" s="22">
-        <v>4.8110000000000002E-3</v>
+        <v>4.8244000000000002E-2</v>
       </c>
       <c r="G36" s="22">
-        <v>0.97475400000000001</v>
+        <v>0.79687200000000002</v>
       </c>
       <c r="H36" s="9">
-        <v>0.174016</v>
+        <v>0.74938400000000005</v>
       </c>
       <c r="I36" s="9">
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.539968</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="L36" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="23">
-        <v>1856774.15576</v>
+        <v>1943003.870782</v>
       </c>
       <c r="E37" s="22">
-        <v>8.2000000000000007E-3</v>
+        <v>6.4799999999999996E-3</v>
       </c>
       <c r="F37" s="22">
-        <v>4.8110000000000002E-3</v>
+        <v>5.1476000000000001E-2</v>
       </c>
       <c r="G37" s="22">
-        <v>0.97475400000000001</v>
+        <v>0.78870899999999999</v>
       </c>
       <c r="H37" s="9">
-        <v>0.174016</v>
+        <v>0.77220699999999998</v>
       </c>
       <c r="I37" s="9">
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="L37" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2199,269 +2483,329 @@
       <c r="I38" s="9">
         <v>5.1810000000000002E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K38" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="23">
-        <v>1856774.15576</v>
+        <v>1856749.507032</v>
       </c>
       <c r="E39" s="22">
-        <v>8.2000000000000007E-3</v>
+        <v>7.9799999999999992E-3</v>
       </c>
       <c r="F39" s="22">
-        <v>4.8110000000000002E-3</v>
+        <v>4.7980000000000002E-3</v>
       </c>
       <c r="G39" s="22">
-        <v>0.97475400000000001</v>
+        <v>0.974688</v>
       </c>
       <c r="H39" s="9">
-        <v>0.174016</v>
+        <v>0.17438799999999999</v>
       </c>
       <c r="I39" s="9">
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1948000000000001E-2</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="23">
-        <v>1856774.15576</v>
+        <v>1850718.447774</v>
       </c>
       <c r="E40" s="22">
-        <v>8.2000000000000007E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="F40" s="22">
-        <v>4.8110000000000002E-3</v>
+        <v>1.534E-3</v>
       </c>
       <c r="G40" s="22">
-        <v>0.97475400000000001</v>
+        <v>0.97944100000000001</v>
       </c>
       <c r="H40" s="9">
-        <v>0.174016</v>
+        <v>0.14856</v>
       </c>
       <c r="I40" s="9">
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.1997E-2</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="23">
-        <v>1856774.15576</v>
+        <v>1850897.4972339999</v>
       </c>
       <c r="E41" s="22">
-        <v>8.2000000000000007E-3</v>
+        <v>5.6800000000000002E-3</v>
       </c>
       <c r="F41" s="22">
-        <v>4.8110000000000002E-3</v>
+        <v>1.6310000000000001E-3</v>
       </c>
       <c r="G41" s="22">
-        <v>0.97475400000000001</v>
+        <v>0.979626</v>
       </c>
       <c r="H41" s="9">
-        <v>0.174016</v>
+        <v>0.14746100000000001</v>
       </c>
       <c r="I41" s="9">
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.1611000000000002E-2</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="23">
-        <v>1856774.15576</v>
+        <v>1937032.677049</v>
       </c>
       <c r="E42" s="22">
-        <v>8.2000000000000007E-3</v>
+        <v>4.3400000000000001E-3</v>
       </c>
       <c r="F42" s="22">
-        <v>4.8110000000000002E-3</v>
+        <v>4.8244000000000002E-2</v>
       </c>
       <c r="G42" s="22">
-        <v>0.97475400000000001</v>
+        <v>0.79687200000000002</v>
       </c>
       <c r="H42" s="9">
-        <v>0.174016</v>
+        <v>0.74938400000000005</v>
       </c>
       <c r="I42" s="9">
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.539968</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L42" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="23">
-        <v>1856774.15576</v>
+        <v>1855936.9607249999</v>
       </c>
       <c r="E43" s="22">
-        <v>8.2000000000000007E-3</v>
+        <v>5.4900000000000001E-3</v>
       </c>
       <c r="F43" s="22">
-        <v>4.8110000000000002E-3</v>
+        <v>4.3579999999999999E-3</v>
       </c>
       <c r="G43" s="22">
-        <v>0.97475400000000001</v>
+        <v>0.97407600000000005</v>
       </c>
       <c r="H43" s="9">
-        <v>0.174016</v>
+        <v>0.17766999999999999</v>
       </c>
       <c r="I43" s="9">
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.3234999999999998E-2</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="23">
-        <v>1856774.15576</v>
+        <v>1856829.0144189999</v>
       </c>
       <c r="E44" s="22">
-        <v>8.2000000000000007E-3</v>
+        <v>8.6499999999999997E-3</v>
       </c>
       <c r="F44" s="22">
-        <v>4.8110000000000002E-3</v>
+        <v>4.8409999999999998E-3</v>
       </c>
       <c r="G44" s="22">
-        <v>0.97475400000000001</v>
+        <v>0.97486600000000001</v>
       </c>
       <c r="H44" s="9">
-        <v>0.174016</v>
+        <v>0.17338700000000001</v>
       </c>
       <c r="I44" s="9">
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1576999999999998E-2</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L44" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="23">
-        <v>1856774.15576</v>
+        <v>1855936.9607249999</v>
       </c>
       <c r="E45" s="22">
-        <v>8.2000000000000007E-3</v>
+        <v>5.4900000000000001E-3</v>
       </c>
       <c r="F45" s="22">
-        <v>4.8110000000000002E-3</v>
+        <v>4.3579999999999999E-3</v>
       </c>
       <c r="G45" s="22">
-        <v>0.97475400000000001</v>
+        <v>0.97407600000000005</v>
       </c>
       <c r="H45" s="9">
-        <v>0.174016</v>
+        <v>0.17766999999999999</v>
       </c>
       <c r="I45" s="9">
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.3234999999999998E-2</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
       <c r="D46" s="23">
-        <v>1856774.15576</v>
+        <v>1850943.789959</v>
       </c>
       <c r="E46" s="22">
-        <v>8.2000000000000007E-3</v>
+        <v>5.6800000000000002E-3</v>
       </c>
       <c r="F46" s="22">
-        <v>4.8110000000000002E-3</v>
+        <v>1.6559999999999999E-3</v>
       </c>
       <c r="G46" s="22">
-        <v>0.97475400000000001</v>
+        <v>0.97969200000000001</v>
       </c>
       <c r="H46" s="9">
-        <v>0.174016</v>
+        <v>0.14685899999999999</v>
       </c>
       <c r="I46" s="9">
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.1472000000000002E-2</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="23">
-        <v>1856774.15576</v>
+        <v>1937032.677049</v>
       </c>
       <c r="E47" s="22">
-        <v>8.2000000000000007E-3</v>
+        <v>4.3400000000000001E-3</v>
       </c>
       <c r="F47" s="22">
-        <v>4.8110000000000002E-3</v>
+        <v>4.8244000000000002E-2</v>
       </c>
       <c r="G47" s="22">
-        <v>0.97475400000000001</v>
+        <v>0.79687200000000002</v>
       </c>
       <c r="H47" s="9">
-        <v>0.174016</v>
+        <v>0.74938400000000005</v>
       </c>
       <c r="I47" s="9">
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.539968</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L47" s="30">
+        <v>1624188.0319999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>75</v>
       </c>
@@ -2489,100 +2833,124 @@
       <c r="I48" s="9">
         <v>5.1810000000000002E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K48" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L48" s="30">
+        <v>1625224.5730000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
+        <v>82</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="23">
+        <v>1943003.870782</v>
+      </c>
+      <c r="E49" s="22">
+        <v>6.4799999999999996E-3</v>
+      </c>
+      <c r="F49" s="22">
+        <v>5.1476000000000001E-2</v>
+      </c>
+      <c r="G49" s="22">
+        <v>0.78870899999999999</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0.77220699999999998</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="L49" s="30">
+        <v>1625224.5730000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>92</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="23">
+        <v>1937067.900046</v>
+      </c>
+      <c r="E50" s="22">
+        <v>4.79E-3</v>
+      </c>
+      <c r="F50" s="22">
+        <v>4.8263E-2</v>
+      </c>
+      <c r="G50" s="22">
+        <v>0.79681599999999997</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0.74946500000000005</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0.54013299999999997</v>
+      </c>
+      <c r="K50" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="L50" s="30">
+        <v>1625224.5730000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D49" s="23">
-        <v>1856774.15576</v>
-      </c>
-      <c r="E49" s="22">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="F49" s="22">
-        <v>4.8110000000000002E-3</v>
-      </c>
-      <c r="G49" s="22">
-        <v>0.97475400000000001</v>
-      </c>
-      <c r="H49" s="9">
-        <v>0.174016</v>
-      </c>
-      <c r="I49" s="9">
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>89</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" t="b">
-        <v>1</v>
-      </c>
-      <c r="D50" s="23">
-        <v>1856774.15576</v>
-      </c>
-      <c r="E50" s="22">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="F50" s="22">
-        <v>4.8110000000000002E-3</v>
-      </c>
-      <c r="G50" s="22">
-        <v>0.97475400000000001</v>
-      </c>
-      <c r="H50" s="9">
-        <v>0.174016</v>
-      </c>
-      <c r="I50" s="9">
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>93</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="23">
-        <v>1856774.15576</v>
+        <v>1937032.677049</v>
       </c>
       <c r="E51" s="22">
-        <v>8.2000000000000007E-3</v>
+        <v>4.3400000000000001E-3</v>
       </c>
       <c r="F51" s="22">
-        <v>4.8110000000000002E-3</v>
+        <v>4.8244000000000002E-2</v>
       </c>
       <c r="G51" s="22">
-        <v>0.97475400000000001</v>
+        <v>0.79687200000000002</v>
       </c>
       <c r="H51" s="9">
-        <v>0.174016</v>
+        <v>0.74938400000000005</v>
       </c>
       <c r="I51" s="9">
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.539968</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="L51" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -2605,535 +2973,649 @@
       <c r="I52" s="9">
         <v>5.1810000000000002E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K52" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L52" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" s="23">
-        <v>1856817.48282</v>
+        <v>1937067.900046</v>
       </c>
       <c r="E53" s="22">
-        <v>8.5500000000000003E-3</v>
+        <v>4.79E-3</v>
       </c>
       <c r="F53" s="22">
-        <v>4.8349999999999999E-3</v>
+        <v>4.8263E-2</v>
       </c>
       <c r="G53" s="22">
-        <v>0.97484199999999999</v>
+        <v>0.79681599999999997</v>
       </c>
       <c r="H53" s="9">
-        <v>0.17352100000000001</v>
+        <v>0.74946500000000005</v>
       </c>
       <c r="I53" s="9">
-        <v>5.1625999999999998E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.54013299999999997</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="L53" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
+        <v>30</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="23">
+        <v>1855936.9607249999</v>
+      </c>
+      <c r="E54" s="22">
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="F54" s="22">
+        <v>4.3579999999999999E-3</v>
+      </c>
+      <c r="G54" s="22">
+        <v>0.97407600000000005</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0.17766999999999999</v>
+      </c>
+      <c r="I54" s="9">
+        <v>5.3234999999999998E-2</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>32</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" s="23">
+        <v>1850943.789959</v>
+      </c>
+      <c r="E55" s="22">
+        <v>5.6800000000000002E-3</v>
+      </c>
+      <c r="F55" s="22">
+        <v>1.6559999999999999E-3</v>
+      </c>
+      <c r="G55" s="22">
+        <v>0.97969200000000001</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0.14685899999999999</v>
+      </c>
+      <c r="I55" s="9">
+        <v>4.1472000000000002E-2</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>36</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="23">
+        <v>1850718.447774</v>
+      </c>
+      <c r="E56" s="22">
+        <v>5.9100000000000003E-3</v>
+      </c>
+      <c r="F56" s="22">
+        <v>1.534E-3</v>
+      </c>
+      <c r="G56" s="22">
+        <v>0.97944100000000001</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0.14856</v>
+      </c>
+      <c r="I56" s="9">
+        <v>4.1997E-2</v>
+      </c>
+      <c r="K56" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>37</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="23">
+        <v>1937032.677049</v>
+      </c>
+      <c r="E57" s="22">
+        <v>4.3400000000000001E-3</v>
+      </c>
+      <c r="F57" s="22">
+        <v>4.8244000000000002E-2</v>
+      </c>
+      <c r="G57" s="22">
+        <v>0.79687200000000002</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0.74938400000000005</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0.539968</v>
+      </c>
+      <c r="K57" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="L57" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>45</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="23">
+        <v>1855936.9607249999</v>
+      </c>
+      <c r="E58" s="22">
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="F58" s="22">
+        <v>4.3579999999999999E-3</v>
+      </c>
+      <c r="G58" s="22">
+        <v>0.97407600000000005</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0.17766999999999999</v>
+      </c>
+      <c r="I58" s="9">
+        <v>5.3234999999999998E-2</v>
+      </c>
+      <c r="K58" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>46</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="23">
+        <v>1850897.4972339999</v>
+      </c>
+      <c r="E59" s="22">
+        <v>5.6800000000000002E-3</v>
+      </c>
+      <c r="F59" s="22">
+        <v>1.6310000000000001E-3</v>
+      </c>
+      <c r="G59" s="22">
+        <v>0.979626</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0.14746100000000001</v>
+      </c>
+      <c r="I59" s="9">
+        <v>4.1611000000000002E-2</v>
+      </c>
+      <c r="K59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>53</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="23">
+        <v>1856774.15576</v>
+      </c>
+      <c r="E60" s="22">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="F60" s="22">
+        <v>4.8110000000000002E-3</v>
+      </c>
+      <c r="G60" s="22">
+        <v>0.97475400000000001</v>
+      </c>
+      <c r="H60" s="9">
+        <v>0.174016</v>
+      </c>
+      <c r="I60" s="9">
+        <v>5.1810000000000002E-2</v>
+      </c>
+      <c r="K60" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L60" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>56</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" s="23">
+        <v>1943003.870782</v>
+      </c>
+      <c r="E61" s="22">
+        <v>6.4799999999999996E-3</v>
+      </c>
+      <c r="F61" s="22">
+        <v>5.1476000000000001E-2</v>
+      </c>
+      <c r="G61" s="22">
+        <v>0.78870899999999999</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0.77220699999999998</v>
+      </c>
+      <c r="I61" s="9">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="K61" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="L61" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" s="23">
+        <v>1937032.677049</v>
+      </c>
+      <c r="E62" s="22">
+        <v>4.3400000000000001E-3</v>
+      </c>
+      <c r="F62" s="22">
+        <v>4.8244000000000002E-2</v>
+      </c>
+      <c r="G62" s="22">
+        <v>0.79687200000000002</v>
+      </c>
+      <c r="H62" s="9">
+        <v>0.74938400000000005</v>
+      </c>
+      <c r="I62" s="9">
+        <v>0.539968</v>
+      </c>
+      <c r="K62" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L62" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="23">
+        <v>1943003.870782</v>
+      </c>
+      <c r="E63" s="22">
+        <v>6.4799999999999996E-3</v>
+      </c>
+      <c r="F63" s="22">
+        <v>5.1476000000000001E-2</v>
+      </c>
+      <c r="G63" s="22">
+        <v>0.78870899999999999</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0.77220699999999998</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="K63" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L63" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>71</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" s="23">
+        <v>1856842.1681870001</v>
+      </c>
+      <c r="E64" s="22">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="F64" s="22">
+        <v>4.8479999999999999E-3</v>
+      </c>
+      <c r="G64" s="22">
+        <v>0.97489199999999998</v>
+      </c>
+      <c r="H64" s="9">
+        <v>0.173236</v>
+      </c>
+      <c r="I64" s="9">
+        <v>5.1520999999999997E-2</v>
+      </c>
+      <c r="K64" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="L64" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>83</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" t="b">
-        <v>1</v>
-      </c>
-      <c r="D54" s="23">
-        <v>1856817.48282</v>
-      </c>
-      <c r="E54" s="22">
-        <v>8.5500000000000003E-3</v>
-      </c>
-      <c r="F54" s="22">
-        <v>4.8349999999999999E-3</v>
-      </c>
-      <c r="G54" s="22">
-        <v>0.97484199999999999</v>
-      </c>
-      <c r="H54" s="9">
-        <v>0.17352100000000001</v>
-      </c>
-      <c r="I54" s="9">
-        <v>5.1625999999999998E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" s="23">
+        <v>1856829.0144189999</v>
+      </c>
+      <c r="E65" s="22">
+        <v>8.6499999999999997E-3</v>
+      </c>
+      <c r="F65" s="22">
+        <v>4.8409999999999998E-3</v>
+      </c>
+      <c r="G65" s="22">
+        <v>0.97486600000000001</v>
+      </c>
+      <c r="H65" s="9">
+        <v>0.17338700000000001</v>
+      </c>
+      <c r="I65" s="9">
+        <v>5.1576999999999998E-2</v>
+      </c>
+      <c r="K65" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="L65" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>88</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="23">
+        <v>1854911.9650359999</v>
+      </c>
+      <c r="E66" s="22">
+        <v>7.6299999999999996E-3</v>
+      </c>
+      <c r="F66" s="22">
+        <v>3.8040000000000001E-3</v>
+      </c>
+      <c r="G66" s="22">
+        <v>0.97651600000000005</v>
+      </c>
+      <c r="H66" s="9">
+        <v>0.16447100000000001</v>
+      </c>
+      <c r="I66" s="9">
+        <v>4.8117E-2</v>
+      </c>
+      <c r="K66" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L66" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>94</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="23">
+        <v>1856829.0144189999</v>
+      </c>
+      <c r="E67" s="22">
+        <v>8.6499999999999997E-3</v>
+      </c>
+      <c r="F67" s="22">
+        <v>4.8409999999999998E-3</v>
+      </c>
+      <c r="G67" s="22">
+        <v>0.97486600000000001</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0.17338700000000001</v>
+      </c>
+      <c r="I67" s="9">
+        <v>5.1576999999999998E-2</v>
+      </c>
+      <c r="K67" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="L67" s="30">
+        <v>1625329.9069999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>81</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="23">
+        <v>1856774.15576</v>
+      </c>
+      <c r="E68" s="22">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="F68" s="22">
+        <v>4.8110000000000002E-3</v>
+      </c>
+      <c r="G68" s="22">
+        <v>0.97475400000000001</v>
+      </c>
+      <c r="H68" s="9">
+        <v>0.174016</v>
+      </c>
+      <c r="I68" s="9">
+        <v>5.1810000000000002E-2</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L68" s="30">
+        <v>1626824.8049999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" t="b">
-        <v>1</v>
-      </c>
-      <c r="D55" s="23">
-        <v>1856829.0144189999</v>
-      </c>
-      <c r="E55" s="22">
-        <v>8.6499999999999997E-3</v>
-      </c>
-      <c r="F55" s="22">
-        <v>4.8409999999999998E-3</v>
-      </c>
-      <c r="G55" s="22">
-        <v>0.97486600000000001</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0.17338700000000001</v>
-      </c>
-      <c r="I55" s="9">
-        <v>5.1576999999999998E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>33</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" t="b">
-        <v>1</v>
-      </c>
-      <c r="D56" s="23">
-        <v>1856829.0144189999</v>
-      </c>
-      <c r="E56" s="22">
-        <v>8.6499999999999997E-3</v>
-      </c>
-      <c r="F56" s="22">
-        <v>4.8409999999999998E-3</v>
-      </c>
-      <c r="G56" s="22">
-        <v>0.97486600000000001</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0.17338700000000001</v>
-      </c>
-      <c r="I56" s="9">
-        <v>5.1576999999999998E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>67</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" t="b">
-        <v>1</v>
-      </c>
-      <c r="D57" s="23">
-        <v>1856829.0144189999</v>
-      </c>
-      <c r="E57" s="22">
-        <v>8.6499999999999997E-3</v>
-      </c>
-      <c r="F57" s="22">
-        <v>4.8409999999999998E-3</v>
-      </c>
-      <c r="G57" s="22">
-        <v>0.97486600000000001</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0.17338700000000001</v>
-      </c>
-      <c r="I57" s="9">
-        <v>5.1576999999999998E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>83</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" t="b">
-        <v>1</v>
-      </c>
-      <c r="D58" s="23">
-        <v>1856829.0144189999</v>
-      </c>
-      <c r="E58" s="22">
-        <v>8.6499999999999997E-3</v>
-      </c>
-      <c r="F58" s="22">
-        <v>4.8409999999999998E-3</v>
-      </c>
-      <c r="G58" s="22">
-        <v>0.97486600000000001</v>
-      </c>
-      <c r="H58" s="9">
-        <v>0.17338700000000001</v>
-      </c>
-      <c r="I58" s="9">
-        <v>5.1576999999999998E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>84</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" s="23">
-        <v>1856829.0144189999</v>
-      </c>
-      <c r="E59" s="22">
-        <v>8.6499999999999997E-3</v>
-      </c>
-      <c r="F59" s="22">
-        <v>4.8409999999999998E-3</v>
-      </c>
-      <c r="G59" s="22">
-        <v>0.97486600000000001</v>
-      </c>
-      <c r="H59" s="9">
-        <v>0.17338700000000001</v>
-      </c>
-      <c r="I59" s="9">
-        <v>5.1576999999999998E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>94</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" s="23">
-        <v>1856829.0144189999</v>
-      </c>
-      <c r="E60" s="22">
-        <v>8.6499999999999997E-3</v>
-      </c>
-      <c r="F60" s="22">
-        <v>4.8409999999999998E-3</v>
-      </c>
-      <c r="G60" s="22">
-        <v>0.97486600000000001</v>
-      </c>
-      <c r="H60" s="9">
-        <v>0.17338700000000001</v>
-      </c>
-      <c r="I60" s="9">
-        <v>5.1576999999999998E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>47</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" s="23">
-        <v>1856842.1681870001</v>
-      </c>
-      <c r="E61" s="22">
-        <v>8.7500000000000008E-3</v>
-      </c>
-      <c r="F61" s="22">
-        <v>4.8479999999999999E-3</v>
-      </c>
-      <c r="G61" s="22">
-        <v>0.97489199999999998</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0.173236</v>
-      </c>
-      <c r="I61" s="9">
-        <v>5.1520999999999997E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>55</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62" s="23">
-        <v>1856842.1681870001</v>
-      </c>
-      <c r="E62" s="22">
-        <v>8.7500000000000008E-3</v>
-      </c>
-      <c r="F62" s="22">
-        <v>4.8479999999999999E-3</v>
-      </c>
-      <c r="G62" s="22">
-        <v>0.97489199999999998</v>
-      </c>
-      <c r="H62" s="9">
-        <v>0.173236</v>
-      </c>
-      <c r="I62" s="9">
-        <v>5.1520999999999997E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>71</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" s="23">
-        <v>1856842.1681870001</v>
-      </c>
-      <c r="E63" s="22">
-        <v>8.7500000000000008E-3</v>
-      </c>
-      <c r="F63" s="22">
-        <v>4.8479999999999999E-3</v>
-      </c>
-      <c r="G63" s="22">
-        <v>0.97489199999999998</v>
-      </c>
-      <c r="H63" s="9">
-        <v>0.173236</v>
-      </c>
-      <c r="I63" s="9">
-        <v>5.1520999999999997E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>95</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" t="b">
-        <v>1</v>
-      </c>
-      <c r="D64" s="23">
-        <v>1856963.8588940001</v>
-      </c>
-      <c r="E64" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="F64" s="22">
-        <v>4.914E-3</v>
-      </c>
-      <c r="G64" s="22">
-        <v>0.97524500000000003</v>
-      </c>
-      <c r="H64" s="9">
-        <v>0.17124300000000001</v>
-      </c>
-      <c r="I64" s="9">
-        <v>5.0784999999999997E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>11</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" t="b">
-        <v>1</v>
-      </c>
-      <c r="D65" s="23">
-        <v>1937032.677049</v>
-      </c>
-      <c r="E65" s="22">
-        <v>4.3400000000000001E-3</v>
-      </c>
-      <c r="F65" s="22">
-        <v>4.8244000000000002E-2</v>
-      </c>
-      <c r="G65" s="22">
-        <v>0.79687200000000002</v>
-      </c>
-      <c r="H65" s="9">
-        <v>0.74938400000000005</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0.539968</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>13</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" t="b">
-        <v>1</v>
-      </c>
-      <c r="D66" s="23">
-        <v>1937032.677049</v>
-      </c>
-      <c r="E66" s="22">
-        <v>4.3400000000000001E-3</v>
-      </c>
-      <c r="F66" s="22">
-        <v>4.8244000000000002E-2</v>
-      </c>
-      <c r="G66" s="22">
-        <v>0.79687200000000002</v>
-      </c>
-      <c r="H66" s="9">
-        <v>0.74938400000000005</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0.539968</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>28</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="23">
-        <v>1937032.677049</v>
-      </c>
-      <c r="E67" s="22">
-        <v>4.3400000000000001E-3</v>
-      </c>
-      <c r="F67" s="22">
-        <v>4.8244000000000002E-2</v>
-      </c>
-      <c r="G67" s="22">
-        <v>0.79687200000000002</v>
-      </c>
-      <c r="H67" s="9">
-        <v>0.74938400000000005</v>
-      </c>
-      <c r="I67" s="9">
-        <v>0.539968</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>37</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D68" s="23">
-        <v>1937032.677049</v>
-      </c>
-      <c r="E68" s="22">
-        <v>4.3400000000000001E-3</v>
-      </c>
-      <c r="F68" s="22">
-        <v>4.8244000000000002E-2</v>
-      </c>
-      <c r="G68" s="22">
-        <v>0.79687200000000002</v>
-      </c>
-      <c r="H68" s="9">
-        <v>0.74938400000000005</v>
-      </c>
-      <c r="I68" s="9">
-        <v>0.539968</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>41</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="23">
-        <v>1937032.677049</v>
+        <v>1855276.704683</v>
       </c>
       <c r="E69" s="22">
-        <v>4.3400000000000001E-3</v>
+        <v>9.8099999999999993E-3</v>
       </c>
       <c r="F69" s="22">
-        <v>4.8244000000000002E-2</v>
+        <v>4.0010000000000002E-3</v>
       </c>
       <c r="G69" s="22">
-        <v>0.79687200000000002</v>
+        <v>0.97706099999999996</v>
       </c>
       <c r="H69" s="9">
-        <v>0.74938400000000005</v>
+        <v>0.161247</v>
       </c>
       <c r="I69" s="9">
-        <v>0.539968</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.6975000000000003E-2</v>
+      </c>
+      <c r="K69" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L69" s="30">
+        <v>1640048.2490000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="23">
-        <v>1937032.677049</v>
+        <v>1855276.704683</v>
       </c>
       <c r="E70" s="22">
-        <v>4.3400000000000001E-3</v>
+        <v>9.8099999999999993E-3</v>
       </c>
       <c r="F70" s="22">
-        <v>4.8244000000000002E-2</v>
+        <v>4.0010000000000002E-3</v>
       </c>
       <c r="G70" s="22">
-        <v>0.79687200000000002</v>
+        <v>0.97706099999999996</v>
       </c>
       <c r="H70" s="9">
-        <v>0.74938400000000005</v>
+        <v>0.161247</v>
       </c>
       <c r="I70" s="9">
-        <v>0.539968</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.6975000000000003E-2</v>
+      </c>
+      <c r="K70" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="30">
+        <v>1640048.2490000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -3156,13 +3638,19 @@
       <c r="I71" s="9">
         <v>0.539968</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K71" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L71" s="30">
+        <v>1640048.2490000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -3185,419 +3673,509 @@
       <c r="I72" s="9">
         <v>0.539968</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K72" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="L72" s="30">
+        <v>1640048.2490000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="23">
-        <v>1937032.677049</v>
+        <v>1856842.1681870001</v>
       </c>
       <c r="E73" s="22">
-        <v>4.3400000000000001E-3</v>
+        <v>8.7500000000000008E-3</v>
       </c>
       <c r="F73" s="22">
-        <v>4.8244000000000002E-2</v>
+        <v>4.8479999999999999E-3</v>
       </c>
       <c r="G73" s="22">
-        <v>0.79687200000000002</v>
+        <v>0.97489199999999998</v>
       </c>
       <c r="H73" s="9">
-        <v>0.74938400000000005</v>
+        <v>0.173236</v>
       </c>
       <c r="I73" s="9">
-        <v>0.539968</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1520999999999997E-2</v>
+      </c>
+      <c r="K73" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L73" s="30">
+        <v>1640048.2490000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" s="23">
+        <v>1856774.15576</v>
+      </c>
+      <c r="E74" s="22">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="F74" s="22">
+        <v>4.8110000000000002E-3</v>
+      </c>
+      <c r="G74" s="22">
+        <v>0.97475400000000001</v>
+      </c>
+      <c r="H74" s="9">
+        <v>0.174016</v>
+      </c>
+      <c r="I74" s="9">
+        <v>5.1810000000000002E-2</v>
+      </c>
+      <c r="K74" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="L74" s="30">
+        <v>1640048.2490000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>64</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="23">
+        <v>1943003.870782</v>
+      </c>
+      <c r="E75" s="22">
+        <v>6.4799999999999996E-3</v>
+      </c>
+      <c r="F75" s="22">
+        <v>5.1476000000000001E-2</v>
+      </c>
+      <c r="G75" s="22">
+        <v>0.78870899999999999</v>
+      </c>
+      <c r="H75" s="9">
+        <v>0.77220699999999998</v>
+      </c>
+      <c r="I75" s="9">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="K75" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="L75" s="30">
+        <v>1640048.2490000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" s="23">
+        <v>1856817.48282</v>
+      </c>
+      <c r="E76" s="22">
+        <v>8.5500000000000003E-3</v>
+      </c>
+      <c r="F76" s="22">
+        <v>4.8349999999999999E-3</v>
+      </c>
+      <c r="G76" s="22">
+        <v>0.97484199999999999</v>
+      </c>
+      <c r="H76" s="9">
+        <v>0.17352100000000001</v>
+      </c>
+      <c r="I76" s="9">
+        <v>5.1625999999999998E-2</v>
+      </c>
+      <c r="K76" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L76" s="30">
+        <v>1640048.2490000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" s="23">
+        <v>1856735.2473510001</v>
+      </c>
+      <c r="E77" s="22">
+        <v>7.9799999999999992E-3</v>
+      </c>
+      <c r="F77" s="22">
+        <v>4.79E-3</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0.97461299999999995</v>
+      </c>
+      <c r="H77" s="9">
+        <v>0.17480799999999999</v>
+      </c>
+      <c r="I77" s="9">
+        <v>5.2104999999999999E-2</v>
+      </c>
+      <c r="K77" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L77" s="30">
+        <v>1640048.2490000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>79</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" s="23">
+        <v>1855936.9607249999</v>
+      </c>
+      <c r="E78" s="22">
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="F78" s="22">
+        <v>4.3579999999999999E-3</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0.97407600000000005</v>
+      </c>
+      <c r="H78" s="9">
+        <v>0.17766999999999999</v>
+      </c>
+      <c r="I78" s="9">
+        <v>5.3234999999999998E-2</v>
+      </c>
+      <c r="K78" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L78" s="30">
+        <v>1640048.2490000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>89</v>
       </c>
-      <c r="C74" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" s="23">
-        <v>1937032.677049</v>
-      </c>
-      <c r="E74" s="22">
-        <v>4.3400000000000001E-3</v>
-      </c>
-      <c r="F74" s="22">
-        <v>4.8244000000000002E-2</v>
-      </c>
-      <c r="G74" s="22">
-        <v>0.79687200000000002</v>
-      </c>
-      <c r="H74" s="9">
-        <v>0.74938400000000005</v>
-      </c>
-      <c r="I74" s="9">
-        <v>0.539968</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>38</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" s="23">
+        <v>1856774.15576</v>
+      </c>
+      <c r="E79" s="22">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="F79" s="22">
+        <v>4.8110000000000002E-3</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0.97475400000000001</v>
+      </c>
+      <c r="H79" s="9">
+        <v>0.174016</v>
+      </c>
+      <c r="I79" s="9">
+        <v>5.1810000000000002E-2</v>
+      </c>
+      <c r="K79" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="L79" s="30">
+        <v>1640048.2490000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>90</v>
       </c>
-      <c r="C75" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" s="23">
-        <v>1937032.677049</v>
-      </c>
-      <c r="E75" s="22">
-        <v>4.3400000000000001E-3</v>
-      </c>
-      <c r="F75" s="22">
-        <v>4.8244000000000002E-2</v>
-      </c>
-      <c r="G75" s="22">
-        <v>0.79687200000000002</v>
-      </c>
-      <c r="H75" s="9">
-        <v>0.74938400000000005</v>
-      </c>
-      <c r="I75" s="9">
-        <v>0.539968</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>40</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" t="b">
-        <v>1</v>
-      </c>
-      <c r="D76" s="23">
-        <v>1937032.677049</v>
-      </c>
-      <c r="E76" s="22">
-        <v>4.3400000000000001E-3</v>
-      </c>
-      <c r="F76" s="22">
-        <v>4.8244000000000002E-2</v>
-      </c>
-      <c r="G76" s="22">
-        <v>0.79687200000000002</v>
-      </c>
-      <c r="H76" s="9">
-        <v>0.74938400000000005</v>
-      </c>
-      <c r="I76" s="9">
-        <v>0.539968</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>72</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" t="b">
-        <v>1</v>
-      </c>
-      <c r="D77" s="23">
-        <v>1937032.677049</v>
-      </c>
-      <c r="E77" s="22">
-        <v>4.3400000000000001E-3</v>
-      </c>
-      <c r="F77" s="22">
-        <v>4.8244000000000002E-2</v>
-      </c>
-      <c r="G77" s="22">
-        <v>0.79687200000000002</v>
-      </c>
-      <c r="H77" s="9">
-        <v>0.74938400000000005</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0.539968</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>74</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" t="b">
-        <v>1</v>
-      </c>
-      <c r="D78" s="23">
-        <v>1937032.677049</v>
-      </c>
-      <c r="E78" s="22">
-        <v>4.3400000000000001E-3</v>
-      </c>
-      <c r="F78" s="22">
-        <v>4.8244000000000002E-2</v>
-      </c>
-      <c r="G78" s="22">
-        <v>0.79687200000000002</v>
-      </c>
-      <c r="H78" s="9">
-        <v>0.74938400000000005</v>
-      </c>
-      <c r="I78" s="9">
-        <v>0.539968</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>3</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" t="b">
-        <v>1</v>
-      </c>
-      <c r="D79" s="23">
+      <c r="B80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" s="23">
+        <v>1856735.2473510001</v>
+      </c>
+      <c r="E80" s="22">
+        <v>7.9799999999999992E-3</v>
+      </c>
+      <c r="F80" s="22">
+        <v>4.79E-3</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0.97461299999999995</v>
+      </c>
+      <c r="H80" s="9">
+        <v>0.17480799999999999</v>
+      </c>
+      <c r="I80" s="9">
+        <v>5.2104999999999999E-2</v>
+      </c>
+      <c r="K80" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L80" s="30">
+        <v>1640377.689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" s="23">
+        <v>1943003.870782</v>
+      </c>
+      <c r="E81" s="22">
+        <v>6.4799999999999996E-3</v>
+      </c>
+      <c r="F81" s="22">
+        <v>5.1476000000000001E-2</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0.78870899999999999</v>
+      </c>
+      <c r="H81" s="9">
+        <v>0.77220699999999998</v>
+      </c>
+      <c r="I81" s="9">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="K81" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="L81" s="30">
+        <v>1640952.5249999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" s="23">
+        <v>1856774.15576</v>
+      </c>
+      <c r="E82" s="22">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="F82" s="22">
+        <v>4.8110000000000002E-3</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0.97475400000000001</v>
+      </c>
+      <c r="H82" s="9">
+        <v>0.174016</v>
+      </c>
+      <c r="I82" s="9">
+        <v>5.1810000000000002E-2</v>
+      </c>
+      <c r="K82" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="L82" s="30">
+        <v>1642195.763</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" s="23">
+        <v>1854911.9650359999</v>
+      </c>
+      <c r="E83" s="22">
+        <v>7.6299999999999996E-3</v>
+      </c>
+      <c r="F83" s="22">
+        <v>3.8040000000000001E-3</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0.97651600000000005</v>
+      </c>
+      <c r="H83" s="9">
+        <v>0.16447100000000001</v>
+      </c>
+      <c r="I83" s="9">
+        <v>4.8117E-2</v>
+      </c>
+      <c r="K83" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L83" s="30">
+        <v>1642195.763</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" s="23">
+        <v>1943003.870782</v>
+      </c>
+      <c r="E84" s="22">
+        <v>6.4799999999999996E-3</v>
+      </c>
+      <c r="F84" s="22">
+        <v>5.1476000000000001E-2</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0.78870899999999999</v>
+      </c>
+      <c r="H84" s="9">
+        <v>0.77220699999999998</v>
+      </c>
+      <c r="I84" s="9">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="K84" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="L84" s="30">
+        <v>1642195.763</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>12</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" s="23">
+        <v>1856774.15576</v>
+      </c>
+      <c r="E85" s="22">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="F85" s="22">
+        <v>4.8110000000000002E-3</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0.97475400000000001</v>
+      </c>
+      <c r="H85" s="9">
+        <v>0.174016</v>
+      </c>
+      <c r="I85" s="9">
+        <v>5.1810000000000002E-2</v>
+      </c>
+      <c r="K85" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L85" s="30">
+        <v>1642195.763</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>14</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" s="23">
         <v>1937067.900046</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E86" s="22">
         <v>4.79E-3</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F86" s="22">
         <v>4.8263E-2</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G86" s="22">
         <v>0.79681599999999997</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H86" s="9">
         <v>0.74946500000000005</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I86" s="9">
         <v>0.54013299999999997</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>14</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="K86" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C80" t="b">
-        <v>1</v>
-      </c>
-      <c r="D80" s="23">
-        <v>1937067.900046</v>
-      </c>
-      <c r="E80" s="22">
-        <v>4.79E-3</v>
-      </c>
-      <c r="F80" s="22">
-        <v>4.8263E-2</v>
-      </c>
-      <c r="G80" s="22">
-        <v>0.79681599999999997</v>
-      </c>
-      <c r="H80" s="9">
-        <v>0.74946500000000005</v>
-      </c>
-      <c r="I80" s="9">
-        <v>0.54013299999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>17</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" t="b">
-        <v>1</v>
-      </c>
-      <c r="D81" s="23">
-        <v>1937067.900046</v>
-      </c>
-      <c r="E81" s="22">
-        <v>4.79E-3</v>
-      </c>
-      <c r="F81" s="22">
-        <v>4.8263E-2</v>
-      </c>
-      <c r="G81" s="22">
-        <v>0.79681599999999997</v>
-      </c>
-      <c r="H81" s="9">
-        <v>0.74946500000000005</v>
-      </c>
-      <c r="I81" s="9">
-        <v>0.54013299999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>85</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C82" t="b">
-        <v>1</v>
-      </c>
-      <c r="D82" s="23">
-        <v>1937067.900046</v>
-      </c>
-      <c r="E82" s="22">
-        <v>4.79E-3</v>
-      </c>
-      <c r="F82" s="22">
-        <v>4.8263E-2</v>
-      </c>
-      <c r="G82" s="22">
-        <v>0.79681599999999997</v>
-      </c>
-      <c r="H82" s="9">
-        <v>0.74946500000000005</v>
-      </c>
-      <c r="I82" s="9">
-        <v>0.54013299999999997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>92</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C83" t="b">
-        <v>1</v>
-      </c>
-      <c r="D83" s="23">
-        <v>1937067.900046</v>
-      </c>
-      <c r="E83" s="22">
-        <v>4.79E-3</v>
-      </c>
-      <c r="F83" s="22">
-        <v>4.8263E-2</v>
-      </c>
-      <c r="G83" s="22">
-        <v>0.79681599999999997</v>
-      </c>
-      <c r="H83" s="9">
-        <v>0.74946500000000005</v>
-      </c>
-      <c r="I83" s="9">
-        <v>0.54013299999999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>97</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C84" t="b">
-        <v>1</v>
-      </c>
-      <c r="D84" s="23">
-        <v>1937067.900046</v>
-      </c>
-      <c r="E84" s="22">
-        <v>4.79E-3</v>
-      </c>
-      <c r="F84" s="22">
-        <v>4.8263E-2</v>
-      </c>
-      <c r="G84" s="22">
-        <v>0.79681599999999997</v>
-      </c>
-      <c r="H84" s="9">
-        <v>0.74946500000000005</v>
-      </c>
-      <c r="I84" s="9">
-        <v>0.54013299999999997</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>6</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" t="b">
-        <v>1</v>
-      </c>
-      <c r="D85" s="23">
-        <v>1943003.870782</v>
-      </c>
-      <c r="E85" s="22">
-        <v>6.4799999999999996E-3</v>
-      </c>
-      <c r="F85" s="22">
-        <v>5.1476000000000001E-2</v>
-      </c>
-      <c r="G85" s="22">
-        <v>0.78870899999999999</v>
-      </c>
-      <c r="H85" s="9">
-        <v>0.77220699999999998</v>
-      </c>
-      <c r="I85" s="9">
-        <v>0.56607799999999997</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>9</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C86" t="b">
-        <v>1</v>
-      </c>
-      <c r="D86" s="23">
-        <v>1943003.870782</v>
-      </c>
-      <c r="E86" s="22">
-        <v>6.4799999999999996E-3</v>
-      </c>
-      <c r="F86" s="22">
-        <v>5.1476000000000001E-2</v>
-      </c>
-      <c r="G86" s="22">
-        <v>0.78870899999999999</v>
-      </c>
-      <c r="H86" s="9">
-        <v>0.77220699999999998</v>
-      </c>
-      <c r="I86" s="9">
-        <v>0.56607799999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L86" s="30">
+        <v>1642195.763</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
@@ -3620,332 +4198,404 @@
       <c r="I87" s="9">
         <v>0.56607799999999997</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K87" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="L87" s="30">
+        <v>1642195.763</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="23">
-        <v>1943003.870782</v>
+        <v>1856829.0144189999</v>
       </c>
       <c r="E88" s="22">
-        <v>6.4799999999999996E-3</v>
+        <v>8.6499999999999997E-3</v>
       </c>
       <c r="F88" s="22">
-        <v>5.1476000000000001E-2</v>
+        <v>4.8409999999999998E-3</v>
       </c>
       <c r="G88" s="22">
-        <v>0.78870899999999999</v>
+        <v>0.97486600000000001</v>
       </c>
       <c r="H88" s="9">
-        <v>0.77220699999999998</v>
+        <v>0.17338700000000001</v>
       </c>
       <c r="I88" s="9">
-        <v>0.56607799999999997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1576999999999998E-2</v>
+      </c>
+      <c r="K88" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L88" s="30">
+        <v>1642195.763</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
       </c>
       <c r="D89" s="23">
-        <v>1943003.870782</v>
+        <v>1856735.2473510001</v>
       </c>
       <c r="E89" s="22">
-        <v>6.4799999999999996E-3</v>
+        <v>7.9799999999999992E-3</v>
       </c>
       <c r="F89" s="22">
-        <v>5.1476000000000001E-2</v>
+        <v>4.79E-3</v>
       </c>
       <c r="G89" s="22">
-        <v>0.78870899999999999</v>
+        <v>0.97461299999999995</v>
       </c>
       <c r="H89" s="9">
-        <v>0.77220699999999998</v>
+        <v>0.17480799999999999</v>
       </c>
       <c r="I89" s="9">
-        <v>0.56607799999999997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.2104999999999999E-2</v>
+      </c>
+      <c r="K89" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L89" s="30">
+        <v>1642195.763</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
       </c>
       <c r="D90" s="23">
-        <v>1943003.870782</v>
+        <v>1855936.9607249999</v>
       </c>
       <c r="E90" s="22">
-        <v>6.4799999999999996E-3</v>
+        <v>5.4900000000000001E-3</v>
       </c>
       <c r="F90" s="22">
-        <v>5.1476000000000001E-2</v>
+        <v>4.3579999999999999E-3</v>
       </c>
       <c r="G90" s="22">
-        <v>0.78870899999999999</v>
+        <v>0.97407600000000005</v>
       </c>
       <c r="H90" s="9">
-        <v>0.77220699999999998</v>
+        <v>0.17766999999999999</v>
       </c>
       <c r="I90" s="9">
-        <v>0.56607799999999997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.3234999999999998E-2</v>
+      </c>
+      <c r="K90" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L90" s="30">
+        <v>1642195.763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
       <c r="D91" s="23">
-        <v>1943003.870782</v>
+        <v>1856842.1681870001</v>
       </c>
       <c r="E91" s="22">
-        <v>6.4799999999999996E-3</v>
+        <v>8.7500000000000008E-3</v>
       </c>
       <c r="F91" s="22">
-        <v>5.1476000000000001E-2</v>
+        <v>4.8479999999999999E-3</v>
       </c>
       <c r="G91" s="22">
-        <v>0.78870899999999999</v>
+        <v>0.97489199999999998</v>
       </c>
       <c r="H91" s="9">
-        <v>0.77220699999999998</v>
+        <v>0.173236</v>
       </c>
       <c r="I91" s="9">
-        <v>0.56607799999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1520999999999997E-2</v>
+      </c>
+      <c r="K91" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L91" s="30">
+        <v>1642195.763</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
       </c>
       <c r="D92" s="23">
-        <v>1943003.870782</v>
+        <v>1856774.15576</v>
       </c>
       <c r="E92" s="22">
-        <v>6.4799999999999996E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="F92" s="22">
-        <v>5.1476000000000001E-2</v>
+        <v>4.8110000000000002E-3</v>
       </c>
       <c r="G92" s="22">
-        <v>0.78870899999999999</v>
+        <v>0.97475400000000001</v>
       </c>
       <c r="H92" s="9">
-        <v>0.77220699999999998</v>
+        <v>0.174016</v>
       </c>
       <c r="I92" s="9">
-        <v>0.56607799999999997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1810000000000002E-2</v>
+      </c>
+      <c r="K92" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="L92" s="30">
+        <v>1642195.763</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
       <c r="D93" s="23">
-        <v>1943003.870782</v>
+        <v>1856774.15576</v>
       </c>
       <c r="E93" s="22">
-        <v>6.4799999999999996E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="F93" s="22">
-        <v>5.1476000000000001E-2</v>
+        <v>4.8110000000000002E-3</v>
       </c>
       <c r="G93" s="22">
-        <v>0.78870899999999999</v>
+        <v>0.97475400000000001</v>
       </c>
       <c r="H93" s="9">
-        <v>0.77220699999999998</v>
+        <v>0.174016</v>
       </c>
       <c r="I93" s="9">
-        <v>0.56607799999999997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1810000000000002E-2</v>
+      </c>
+      <c r="K93" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="L93" s="30">
+        <v>1642195.763</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
       </c>
       <c r="D94" s="23">
-        <v>1943003.870782</v>
+        <v>1856829.0144189999</v>
       </c>
       <c r="E94" s="22">
-        <v>6.4799999999999996E-3</v>
+        <v>8.6499999999999997E-3</v>
       </c>
       <c r="F94" s="22">
-        <v>5.1476000000000001E-2</v>
+        <v>4.8409999999999998E-3</v>
       </c>
       <c r="G94" s="22">
-        <v>0.78870899999999999</v>
+        <v>0.97486600000000001</v>
       </c>
       <c r="H94" s="9">
-        <v>0.77220699999999998</v>
+        <v>0.17338700000000001</v>
       </c>
       <c r="I94" s="9">
-        <v>0.56607799999999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1576999999999998E-2</v>
+      </c>
+      <c r="K94" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L94" s="30">
+        <v>1642318.274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
+        <v>72</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" s="23">
+        <v>1937032.677049</v>
+      </c>
+      <c r="E95" s="22">
+        <v>4.3400000000000001E-3</v>
+      </c>
+      <c r="F95" s="22">
+        <v>4.8244000000000002E-2</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0.79687200000000002</v>
+      </c>
+      <c r="H95" s="9">
+        <v>0.74938400000000005</v>
+      </c>
+      <c r="I95" s="9">
+        <v>0.539968</v>
+      </c>
+      <c r="K95" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="L95" s="30">
+        <v>1642462.138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" s="23">
+        <v>1856963.8588940001</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="F96" s="22">
+        <v>4.914E-3</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0.97524500000000003</v>
+      </c>
+      <c r="H96" s="9">
+        <v>0.17124300000000001</v>
+      </c>
+      <c r="I96" s="9">
+        <v>5.0784999999999997E-2</v>
+      </c>
+      <c r="K96" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="L96" s="30">
+        <v>1643075.0349999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>48</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" s="23">
+        <v>1856749.507032</v>
+      </c>
+      <c r="E97" s="22">
+        <v>7.9799999999999992E-3</v>
+      </c>
+      <c r="F97" s="22">
+        <v>4.7980000000000002E-3</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0.974688</v>
+      </c>
+      <c r="H97" s="9">
+        <v>0.17438799999999999</v>
+      </c>
+      <c r="I97" s="9">
+        <v>5.1948000000000001E-2</v>
+      </c>
+      <c r="K97" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L97" s="30">
+        <v>1643124.7239999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
+        <v>98</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" s="25">
+        <v>1847883.093562</v>
+      </c>
+      <c r="E98" s="21">
+        <v>6.8599999999999998E-3</v>
+      </c>
+      <c r="F98" s="21">
+        <v>0</v>
+      </c>
+      <c r="G98" s="21">
+        <v>1</v>
+      </c>
+      <c r="H98" s="7">
+        <v>0</v>
+      </c>
+      <c r="I98" s="7">
+        <v>0</v>
+      </c>
+      <c r="K98" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" s="30">
+        <v>1643335.301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>59</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C95" t="b">
-        <v>1</v>
-      </c>
-      <c r="D95" s="23">
-        <v>1943003.870782</v>
-      </c>
-      <c r="E95" s="22">
-        <v>6.4799999999999996E-3</v>
-      </c>
-      <c r="F95" s="22">
-        <v>5.1476000000000001E-2</v>
-      </c>
-      <c r="G95" s="22">
-        <v>0.78870899999999999</v>
-      </c>
-      <c r="H95" s="9">
-        <v>0.77220699999999998</v>
-      </c>
-      <c r="I95" s="9">
-        <v>0.56607799999999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>62</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" t="b">
-        <v>1</v>
-      </c>
-      <c r="D96" s="23">
-        <v>1943003.870782</v>
-      </c>
-      <c r="E96" s="22">
-        <v>6.4799999999999996E-3</v>
-      </c>
-      <c r="F96" s="22">
-        <v>5.1476000000000001E-2</v>
-      </c>
-      <c r="G96" s="22">
-        <v>0.78870899999999999</v>
-      </c>
-      <c r="H96" s="9">
-        <v>0.77220699999999998</v>
-      </c>
-      <c r="I96" s="9">
-        <v>0.56607799999999997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>64</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" t="b">
-        <v>1</v>
-      </c>
-      <c r="D97" s="23">
-        <v>1943003.870782</v>
-      </c>
-      <c r="E97" s="22">
-        <v>6.4799999999999996E-3</v>
-      </c>
-      <c r="F97" s="22">
-        <v>5.1476000000000001E-2</v>
-      </c>
-      <c r="G97" s="22">
-        <v>0.78870899999999999</v>
-      </c>
-      <c r="H97" s="9">
-        <v>0.77220699999999998</v>
-      </c>
-      <c r="I97" s="9">
-        <v>0.56607799999999997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>77</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C98" t="b">
-        <v>1</v>
-      </c>
-      <c r="D98" s="23">
-        <v>1943003.870782</v>
-      </c>
-      <c r="E98" s="22">
-        <v>6.4799999999999996E-3</v>
-      </c>
-      <c r="F98" s="22">
-        <v>5.1476000000000001E-2</v>
-      </c>
-      <c r="G98" s="22">
-        <v>0.78870899999999999</v>
-      </c>
-      <c r="H98" s="9">
-        <v>0.77220699999999998</v>
-      </c>
-      <c r="I98" s="9">
-        <v>0.56607799999999997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>82</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -3968,42 +4618,54 @@
       <c r="I99" s="9">
         <v>0.56607799999999997</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K99" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="L99" s="30">
+        <v>1643883.1440000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100" s="23">
+        <v>1855936.9607249999</v>
+      </c>
+      <c r="E100" s="22">
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="F100" s="22">
+        <v>4.3579999999999999E-3</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0.97407600000000005</v>
+      </c>
+      <c r="H100" s="9">
+        <v>0.17766999999999999</v>
+      </c>
+      <c r="I100" s="9">
+        <v>5.3234999999999998E-2</v>
+      </c>
+      <c r="K100" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L100" s="30">
+        <v>1644376.2930000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>86</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C100" t="b">
-        <v>1</v>
-      </c>
-      <c r="D100" s="23">
-        <v>1943003.870782</v>
-      </c>
-      <c r="E100" s="22">
-        <v>6.4799999999999996E-3</v>
-      </c>
-      <c r="F100" s="22">
-        <v>5.1476000000000001E-2</v>
-      </c>
-      <c r="G100" s="22">
-        <v>0.78870899999999999</v>
-      </c>
-      <c r="H100" s="9">
-        <v>0.77220699999999998</v>
-      </c>
-      <c r="I100" s="9">
-        <v>0.56607799999999997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -4025,6 +4687,842 @@
       </c>
       <c r="I101" s="9">
         <v>0.56607799999999997</v>
+      </c>
+      <c r="K101" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="L101" s="30">
+        <v>1644436.5819999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L101">
+    <sortCondition ref="L2:L101"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905FAA32-359A-B843-94B7-5618C51F627D}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1642195.7629410001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1642195.7629410001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1622213.1919100001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1644376.292834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1640048.249174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1642195.7629410001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="23">
+        <v>1642195.7629410001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1642195.7629410001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="23">
+        <v>1616149.669401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="23">
+        <v>1642195.7629410001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="23">
+        <v>1622213.1919100001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="23">
+        <v>1621262.917253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="23">
+        <v>1623311.6787139999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="23">
+        <v>1620196.1839389999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="23">
+        <v>1623149.5825459999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="23">
+        <v>1642195.7629410001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="23">
+        <v>1622213.1919100001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="23">
+        <v>1620187.534211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="23">
+        <v>1640048.249174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="23">
+        <v>1620869.235869</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="23">
+        <v>1621891.8745929999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="23">
+        <v>1640048.249174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="23">
+        <v>1620187.534211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="23">
+        <v>1642195.7629410001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="23">
+        <v>1640048.249174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="23">
+        <v>1642195.7629410001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="23">
+        <v>1642195.7629410001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="23">
+        <v>1643124.7239359999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="23">
+        <v>1642195.7629410001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="23">
+        <v>1620187.534211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="23">
+        <v>1640048.249174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="23">
+        <v>1620187.534211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="23">
+        <v>1640048.249174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="23">
+        <v>1643883.1435370001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="23">
+        <v>1640048.249174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="23">
+        <v>1620187.534211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="23">
+        <v>1642318.2738270001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="23">
+        <v>1620187.534211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="23">
+        <v>1620869.235869</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="23">
+        <v>1642462.1375750001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="23">
+        <v>1640048.249174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="23">
+        <v>1625224.5734240001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="23">
+        <v>1640952.5252090001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="23">
+        <v>1640048.249174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="23">
+        <v>1640048.249174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="23">
+        <v>1620187.534211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="23">
+        <v>1626824.8052640001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="23">
+        <v>1625224.5734240001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="23">
+        <v>1620187.534211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="23">
+        <v>1644436.582469</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90" s="23">
+        <v>1640048.249174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="23">
+        <v>1640377.6893209999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="23">
+        <v>1625224.5734240001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="23">
+        <v>1642195.7629410001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95" s="23">
+        <v>1625329.907231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="23">
+        <v>1643075.035408</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="23">
+        <v>1624188.032345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="23">
+        <v>1620869.235869</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="23">
+        <v>1643335.3013289999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="23">
+        <v>1620869.235869</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B101" s="23">
+        <v>1620187.534211</v>
       </c>
     </row>
   </sheetData>
